--- a/weird_slash.xlsx
+++ b/weird_slash.xlsx
@@ -522,102 +522,90 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>40</v>
+        <v>765</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bayesian Data Analysis</t>
+          <t>Introductory Mathematics with Applications</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MATH11175</t>
+          <t>MATH07004</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MATHO Bayesian Data Analysis - Lecture/01</t>
+          <t>MATH1 Introductory Mathematics with Applications -  Q&amp;A</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>*Lecture - Online Live</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H2" t="n">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>* SEM 2 - Odd weeks only</t>
+          <t>* SEM 1 - Weeks 2-11 only</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>26, 28, 30, 33, 35, 37</t>
+          <t>(10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>840</v>
+      </c>
+      <c r="N2" t="n">
+        <v>900</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>*King's Buildings</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>NUC_B.01 - Alder Lecture Theatre</t>
-        </is>
-      </c>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>77</v>
+        <v>737</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Calculus and its Applications</t>
+          <t>Introduction to Linear Algebra</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MATH08058</t>
+          <t>MATH08057</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MATH1 Calculus and Its Appl - Lecture/14:00</t>
+          <t>MATH1 Intro to Linear Algebra - Lecture/11:10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -629,35 +617,27 @@
         <v>400</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>* SEM 2</t>
-        </is>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>26-30, 32-37</t>
+          <t>(9,)</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>Monday</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
+      <c r="M3" t="n">
+        <v>660</v>
+      </c>
+      <c r="N3" t="n">
+        <v>720</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -666,7 +646,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -682,22 +662,22 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>78</v>
+        <v>738</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Calculus and its Applications</t>
+          <t>Introduction to Linear Algebra</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MATH08058</t>
+          <t>MATH08057</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MATH1 Calculus and Its Appl - Lecture/14:00</t>
+          <t>MATH1 Intro to Linear Algebra - Lecture/12:10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -709,35 +689,27 @@
         <v>400</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>* SEM 2</t>
-        </is>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>26-30, 32-37</t>
+          <t>(9,)</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>720</v>
+      </c>
+      <c r="N4" t="n">
+        <v>780</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -746,7 +718,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -762,58 +734,58 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>84</v>
+        <v>731</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Calculus and its Applications</t>
+          <t>Introduction to Linear Algebra</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MATH08058</t>
+          <t>MATH08057</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MATH1 Calculus and Its Appl - Lecture/streaming</t>
+          <t>MATH1 Intro to Linear Algebra - Lecture/12:10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>*Lecture - Online Live</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>229</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>181</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>291</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>720</v>
+      </c>
+      <c r="N5" t="n">
+        <v>780</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -822,66 +794,74 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>01:00</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>*Central</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>GALT_ Gordon Aikman Lecture Theatre</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>86</v>
+        <v>732</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Calculus and its Applications</t>
+          <t>Introduction to Linear Algebra</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MATH08058</t>
+          <t>MATH08057</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MATH1 Calculus and Its Appl - Lecture/streaming</t>
+          <t>MATH1 Intro to Linear Algebra - Lecture/13:10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>*Lecture - Online Live</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>229</v>
+        <v>400</v>
       </c>
       <c r="H6" t="n">
-        <v>181</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>296</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>Thursday</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
+      <c r="M6" t="n">
+        <v>780</v>
+      </c>
+      <c r="N6" t="n">
+        <v>840</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -890,66 +870,70 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>01:00</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>*Central</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>GALT_ Gordon Aikman Lecture Theatre</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>202</v>
+        <v>735</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Introduction to Linear Algebra</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH08057</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/04 &lt;29, 33&gt;</t>
+          <t>MATH1 Intro to Linear Algebra - Lecture/12:10 &lt;9-11, 13-19&gt;</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
       <c r="H7" t="n">
-        <v>16</v>
+        <v>291</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>29, 33</t>
+          <t>(9, 10, 11, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>720</v>
+      </c>
+      <c r="N7" t="n">
+        <v>780</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -958,74 +942,70 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+          <t>GALT_ Gordon Aikman Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>203</v>
+        <v>733</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Introduction to Linear Algebra</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH08057</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/04 &lt;27-28&gt;</t>
+          <t>MATH1 Intro to Linear Algebra - Lecture/13:10 &lt;9-11, 13-19&gt;</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>16</v>
+        <v>296</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>27-28</t>
+          <t>(9, 10, 11, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>780</v>
+      </c>
+      <c r="N8" t="n">
+        <v>840</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1034,74 +1014,70 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+          <t>GALT_ Gordon Aikman Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>204</v>
+        <v>736</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Introduction to Linear Algebra</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH08057</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/05 &lt;29, 33&gt;</t>
+          <t>MATH1 Intro to Linear Algebra - Lecture/12:10 &lt;12&gt;</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Lecture - Online Pre-recorded</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>14</v>
+        <v>400</v>
       </c>
       <c r="H9" t="n">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>29, 33</t>
+          <t>(12,)</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>720</v>
+      </c>
+      <c r="N9" t="n">
+        <v>780</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1110,74 +1086,66 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
-        </is>
-      </c>
+          <t>*Central</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>205</v>
+        <v>734</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Introduction to Linear Algebra</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH08057</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/05 &lt;27-28&gt;</t>
+          <t>MATH1 Intro to Linear Algebra - Lecture/13:10 &lt;12&gt;</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Lecture - Online Pre-recorded</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>14</v>
+        <v>400</v>
       </c>
       <c r="H10" t="n">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>27-28</t>
+          <t>(12,)</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>780</v>
+      </c>
+      <c r="N10" t="n">
+        <v>840</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1186,74 +1154,62 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>02:00</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>*King's Buildings</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
-        </is>
-      </c>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>206</v>
+        <v>84</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Calculus and its Applications</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH08058</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/06 &lt;29, 33&gt;</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/streaming</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Lecture - Online Live</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>229</v>
       </c>
       <c r="H11" t="n">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>29, 33</t>
+          <t>(26,)</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
           <t>Monday</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
+      <c r="M11" t="n">
+        <v>780</v>
+      </c>
+      <c r="N11" t="n">
+        <v>840</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1262,74 +1218,62 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>02:00</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>*King's Buildings</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>JCMB_1512</t>
-        </is>
-      </c>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>207</v>
+        <v>86</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Calculus and its Applications</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH08058</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/06 &lt;27-28&gt;</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/streaming</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Lecture - Online Live</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>15</v>
+        <v>229</v>
       </c>
       <c r="H12" t="n">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>27-28</t>
+          <t>(26,)</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>780</v>
+      </c>
+      <c r="N12" t="n">
+        <v>840</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1338,74 +1282,66 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>02:00</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>*King's Buildings</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
-        </is>
-      </c>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Calculus and its Applications</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH08058</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/07 &lt;29, 33&gt;</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/14:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
       <c r="H13" t="n">
-        <v>16</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>* SEM 2</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>29, 33</t>
+          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
           <t>Monday</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
+      <c r="M13" t="n">
+        <v>840</v>
+      </c>
+      <c r="N13" t="n">
+        <v>900</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1414,74 +1350,74 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+          <t>GALT_ Gordon Aikman Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Calculus and its Applications</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH08058</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/07 &lt;27-28&gt;</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/14:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
       <c r="H14" t="n">
-        <v>16</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>* SEM 2</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>27-28</t>
+          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>840</v>
+      </c>
+      <c r="N14" t="n">
+        <v>900</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1490,74 +1426,74 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+          <t>GALT_ Gordon Aikman Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>210</v>
+        <v>971</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Proofs and Problem Solving</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH08059</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/08 &lt;29, 33&gt;</t>
+          <t>MATH1 Proofs and Problem Solving - Lecture/9:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="H15" t="n">
-        <v>14</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>199</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>* SEM 2</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>29, 33</t>
+          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>540</v>
+      </c>
+      <c r="N15" t="n">
+        <v>600</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1566,74 +1502,74 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>40 George Square Lecture Theatres</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+          <t>40GS_Lecture Theatre C</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>211</v>
+        <v>972</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Proofs and Problem Solving</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH08059</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/08 &lt;27-28&gt;</t>
+          <t>MATH1 Proofs and Problem Solving - Lecture/10:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="H16" t="n">
-        <v>14</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>193</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>* SEM 2</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>27-28</t>
+          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>600</v>
+      </c>
+      <c r="N16" t="n">
+        <v>660</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1642,74 +1578,74 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>40 George Square Lecture Theatres</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+          <t>40GS_Lecture Theatre C</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>212</v>
+        <v>973</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Proofs and Problem Solving</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH08059</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/09 &lt;29, 33&gt;</t>
+          <t>MATH1 Proofs and Problem Solving - Lecture/9:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="H17" t="n">
-        <v>14</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>202</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>* SEM 2</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>29, 33</t>
+          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>540</v>
+      </c>
+      <c r="N17" t="n">
+        <v>600</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1718,74 +1654,74 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>40 George Square Lecture Theatres</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+          <t>40GS_Lecture Theatre C</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>213</v>
+        <v>974</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Proofs and Problem Solving</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH08059</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/09 &lt;27-28&gt;</t>
+          <t>MATH1 Proofs and Problem Solving - Lecture/10:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="H18" t="n">
-        <v>14</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>191</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>* SEM 2</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>27-28</t>
+          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>600</v>
+      </c>
+      <c r="N18" t="n">
+        <v>660</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1794,74 +1730,74 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>40 George Square Lecture Theatres</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+          <t>40GS_Lecture Theatre C</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>214</v>
+        <v>1043</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Several Variable Calculus and Differential Equations</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH08063</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/10 &lt;29, 33&gt;</t>
+          <t>MATH2 Sev Var Calc Diff Eq - Lecture/overflow</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="H19" t="n">
-        <v>14</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>146</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>29, 33</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>720</v>
+      </c>
+      <c r="N19" t="n">
+        <v>780</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1870,7 +1806,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -1880,64 +1816,64 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+          <t>JCMB_Lecture Theatre B</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>215</v>
+        <v>1042</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Several Variable Calculus and Differential Equations</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH08063</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/10 &lt;27-28&gt;</t>
+          <t>MATH2 Sev Var Calc Diff Eq - Lecture/main</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>14</v>
+        <v>350</v>
       </c>
       <c r="H20" t="n">
-        <v>14</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>302</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>27-28</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>720</v>
+      </c>
+      <c r="N20" t="n">
+        <v>780</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1946,7 +1882,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -1956,64 +1892,64 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+          <t>SB_Main Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>216</v>
+        <v>1044</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Several Variable Calculus and Differential Equations</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH08063</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/02 &lt;29, 33&gt;</t>
+          <t>MATH2 Sev Var Calc Diff Eq - Lecture/main</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="H21" t="n">
-        <v>15</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>448</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>29, 33</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>Monday</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
+      <c r="M21" t="n">
+        <v>720</v>
+      </c>
+      <c r="N21" t="n">
+        <v>780</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2022,7 +1958,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -2032,64 +1968,64 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+          <t>ASH_Lecture Theatre 1</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>217</v>
+        <v>1046</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Several Variable Calculus and Differential Equations</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH08063</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/02 &lt;27-28&gt;</t>
+          <t>MATH2 Sev Var Calc Diff Eq - Lecture/overflow</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="H22" t="n">
-        <v>15</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>147</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>27-28</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>720</v>
+      </c>
+      <c r="N22" t="n">
+        <v>780</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2098,7 +2034,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2108,64 +2044,64 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+          <t>JCMB_Lecture Theatre B</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>218</v>
+        <v>1045</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Several Variable Calculus and Differential Equations</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH08063</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/03 &lt;29, 33&gt;</t>
+          <t>MATH2 Sev Var Calc Diff Eq - Lecture/main</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>15</v>
+        <v>350</v>
       </c>
       <c r="H23" t="n">
-        <v>15</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>301</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>29, 33</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>720</v>
+      </c>
+      <c r="N23" t="n">
+        <v>780</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2174,7 +2110,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -2184,64 +2120,64 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+          <t>SB_Main Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>219</v>
+        <v>1048</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Several Variable Calculus and Differential Equations</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH08063</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/03 &lt;27-28&gt;</t>
+          <t>MATH2 Sev Var Calc Diff Eq - Lecture/overflow</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="H24" t="n">
-        <v>15</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>146</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>27-28</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>720</v>
+      </c>
+      <c r="N24" t="n">
+        <v>780</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2250,7 +2186,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -2260,64 +2196,64 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+          <t>JCMB_Lecture Theatre B</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>220</v>
+        <v>1047</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Several Variable Calculus and Differential Equations</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH08063</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/01 &lt;29, 33&gt;</t>
+          <t>MATH2 Sev Var Calc Diff Eq - Lecture/main</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>15</v>
+        <v>350</v>
       </c>
       <c r="H25" t="n">
-        <v>16</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>302</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>29, 33</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>720</v>
+      </c>
+      <c r="N25" t="n">
+        <v>780</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2326,7 +2262,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -2336,64 +2272,64 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+          <t>SB_Main Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>221</v>
+        <v>413</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Fundamentals of Pure Mathematics</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH08064</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/01 &lt;27-28&gt;</t>
+          <t>MATH2 Fundamentals of Pure Mathematics - Lecture/overflow</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="H26" t="n">
-        <v>16</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>* SEM 2</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>27-28</t>
+          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>720</v>
+      </c>
+      <c r="N26" t="n">
+        <v>780</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2402,7 +2338,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -2412,28 +2348,28 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+          <t>JCMB_Lecture Theatre A</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>259</v>
+        <v>412</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Engineering Mathematics 1a</t>
+          <t>Fundamentals of Pure Mathematics</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MATH08074</t>
+          <t>MATH08064</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MATH1 Engineering Mathematics 1a - Lecture &lt;9-11, 13-19&gt;</t>
+          <t>MATH2 Fundamentals of Pure Mathematics - Lecture/main</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2442,74 +2378,74 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>458</v>
+        <v>374</v>
       </c>
       <c r="H27" t="n">
-        <v>362</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>372</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>* SEM 2</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>9-11, 13-19</t>
+          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="M27" t="n">
+        <v>720</v>
+      </c>
+      <c r="N27" t="n">
+        <v>780</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
         <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>01:00</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>*Central</t>
+          <t>*King's Buildings</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>GALT_ Gordon Aikman Lecture Theatre</t>
+          <t>SB_Main Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>260</v>
+        <v>415</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Engineering Mathematics 1a</t>
+          <t>Fundamentals of Pure Mathematics</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MATH08074</t>
+          <t>MATH08064</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MATH1 Engineering Mathematics 1a - Lecture &lt;12&gt;</t>
+          <t>MATH2 Fundamentals of Pure Mathematics - Lecture/overflow</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2518,110 +2454,110 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="H28" t="n">
-        <v>362</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>89</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>* SEM 2</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>720</v>
+      </c>
+      <c r="N28" t="n">
+        <v>780</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
         <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>01:00</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>01:00</t>
-        </is>
-      </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>*Central</t>
+          <t>*King's Buildings</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>AT_Lecture Theatre 2</t>
+          <t>JCMB_Lecture Theatre C</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>266</v>
+        <v>414</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Engineering Mathematics 1a</t>
+          <t>Fundamentals of Pure Mathematics</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MATH08074</t>
+          <t>MATH08064</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MATH1 Engineering Mathematics 1a - Studio Workshop/38 &lt;9&gt;</t>
+          <t>MATH2 Fundamentals of Pure Mathematics - Lecture/main</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>*Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="H29" t="n">
-        <v>47</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>370</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>* SEM 2</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
+      <c r="M29" t="n">
+        <v>720</v>
+      </c>
+      <c r="N29" t="n">
+        <v>780</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2630,74 +2566,74 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>*Central</t>
+          <t>Nucleus</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>AT_2.05,AT_2.07,AT_2.11</t>
+          <t>NUC_1.14 - Oak Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>269</v>
+        <v>956</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Engineering Mathematics 1a</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MATH08074</t>
+          <t>MATH08066</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MATH1 Engineering Mathematics 1a - Studio Workshop/38 &lt;15&gt;</t>
+          <t>MATH2 Probability - Lecture/main</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>*Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="H30" t="n">
-        <v>47</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>265</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>780</v>
+      </c>
+      <c r="N30" t="n">
+        <v>840</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2706,74 +2642,74 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>*Central</t>
+          <t>*King's Buildings</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>40GS_LG.09</t>
+          <t>ASH_Lecture Theatre 1</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>270</v>
+        <v>957</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Engineering Mathematics 1a</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MATH08074</t>
+          <t>MATH08066</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MATH1 Engineering Mathematics 1a - Studio Workshop/38 &lt;10, 12-13, 16-19&gt;</t>
+          <t>MATH2 Probability - Lecture/overflow</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>*Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c r="H31" t="n">
-        <v>47</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>190</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>10, 12-13, 16-19</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>780</v>
+      </c>
+      <c r="N31" t="n">
+        <v>840</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2782,74 +2718,74 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>*Central</t>
+          <t>JCMB</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>40GS_LG.07 - Teaching Studio</t>
+          <t>JCMB_Lecture Theatre A</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>271</v>
+        <v>959</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Engineering Mathematics 1a</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MATH08074</t>
+          <t>MATH08066</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MATH1 Engineering Mathematics 1a - Studio Workshop/38 &lt;11&gt;</t>
+          <t>MATH2 Probability - Lecture/overflow</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>*Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="H32" t="n">
-        <v>47</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>164</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>780</v>
+      </c>
+      <c r="N32" t="n">
+        <v>840</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2858,74 +2794,74 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>*Central</t>
+          <t>JCMB</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>40GS_LG.11</t>
+          <t>JCMB_Lecture Theatre A</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>272</v>
+        <v>958</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Engineering Mathematics 1a</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MATH08074</t>
+          <t>MATH08066</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MATH1 Engineering Mathematics 1a - Studio Workshop/38 &lt;14&gt;</t>
+          <t>MATH2 Probability - Lecture/main</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>*Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="H33" t="n">
-        <v>47</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>291</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>780</v>
+      </c>
+      <c r="N33" t="n">
+        <v>840</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2934,23 +2870,23 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>*Central</t>
+          <t>*King's Buildings</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>AT_2.12</t>
+          <t>SB_Main Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2965,43 +2901,39 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MATH1 Engineering Mathematics 1a - Lecture &lt;9-11, 13-19&gt;</t>
+          <t>MATH1 Engineering Mathematics 1a - Studio Workshop/38 &lt;9&gt;</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>*Workshop</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>458</v>
+        <v>20</v>
       </c>
       <c r="H34" t="n">
-        <v>426</v>
+        <v>47</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>9-11, 13-19</t>
+          <t>(9,)</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>720</v>
+      </c>
+      <c r="N34" t="n">
+        <v>780</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3010,7 +2942,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -3020,13 +2952,13 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>GALT_ Gordon Aikman Lecture Theatre</t>
+          <t>AT_2.05,AT_2.07,AT_2.11</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -3041,43 +2973,43 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MATH1 Engineering Mathematics 1a - Lecture Online Live</t>
+          <t>MATH1 Engineering Mathematics 1a - Lecture/overflow</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>*Lecture - Online Live</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>458</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>426</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>Thursday</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
+      <c r="M35" t="n">
+        <v>840</v>
+      </c>
+      <c r="N35" t="n">
+        <v>900</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3086,7 +3018,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -3094,11 +3026,15 @@
           <t>*Central</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>OC_Usha Kasera Lecture Theatre</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3113,7 +3049,7 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MATH1 Engineering Mathematics 1a - Lecture/overflow</t>
+          <t>MATH1 Engineering Mathematics 1a - Lecture &lt;9-11, 13-19&gt;</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3122,38 +3058,30 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>* SEM 1</t>
-        </is>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>9-19</t>
+          <t>(9, 10, 11, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>Thursday</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
+      <c r="M36" t="n">
+        <v>840</v>
+      </c>
+      <c r="N36" t="n">
+        <v>900</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3162,7 +3090,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -3172,28 +3100,28 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>OC_Usha Kasera Lecture Theatre</t>
+          <t>GALT_ Gordon Aikman Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Engineering Mathematics 1b, Mathematics for the Natural Sciences 1b</t>
+          <t>Engineering Mathematics 1a</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MATH08075</t>
+          <t>MATH08074</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MATH1 Engineering Mathematics/ Mathematics for Natural Science 1B - Lecture</t>
+          <t>MATH1 Engineering Mathematics 1a - Lecture &lt;9-11, 13-19&gt;</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3202,34 +3130,30 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>400</v>
+        <v>458</v>
       </c>
       <c r="H37" t="n">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>26-30, 32-37</t>
+          <t>(9, 10, 11, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>660</v>
+      </c>
+      <c r="N37" t="n">
+        <v>720</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3238,74 +3162,70 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>Nucleus</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>NUC_1.14 - Oak Lecture Theatre</t>
+          <t>GALT_ Gordon Aikman Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Engineering Mathematics 1b, Mathematics for the Natural Sciences 1b</t>
+          <t>Engineering Mathematics 1a</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MATH08075</t>
+          <t>MATH08074</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MATH1 Engineering Mathematics/ Mathematics for Natural Science 1B - Lecture</t>
+          <t>MATH1 Engineering Mathematics 1a - Studio Workshop/38 &lt;10, 12-13, 16-19&gt;</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>*Workshop</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="H38" t="n">
-        <v>400</v>
+        <v>47</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>26-30, 32-37</t>
+          <t>(10, 12, 13, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>720</v>
+      </c>
+      <c r="N38" t="n">
+        <v>780</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3314,74 +3234,70 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>Nucleus</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>NUC_1.14 - Oak Lecture Theatre</t>
+          <t>40GS_LG.07 - Teaching Studio</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Engineering Mathematics 1b, Mathematics for the Natural Sciences 1b</t>
+          <t>Engineering Mathematics 1a</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MATH08075</t>
+          <t>MATH08074</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MATH1 Engineering Mathematics/ Mathematics for Natural Science 1B - Lecture/overflow</t>
+          <t>MATH1 Engineering Mathematics 1a - Studio Workshop/38 &lt;11&gt;</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>*Workshop</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H39" t="n">
-        <v>175</v>
+        <v>47</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>26-30, 32-37</t>
+          <t>(11,)</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>720</v>
+      </c>
+      <c r="N39" t="n">
+        <v>780</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3390,74 +3306,70 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>ESB_Lecture Theatre No. 1</t>
+          <t>40GS_LG.11</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Engineering Mathematics 1b, Mathematics for the Natural Sciences 1b</t>
+          <t>Engineering Mathematics 1a</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MATH08075</t>
+          <t>MATH08074</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MATH1 Engineering Mathematics/ Mathematics for Natural Science 1B - Lecture/overflow</t>
+          <t>MATH1 Engineering Mathematics 1a - Lecture Online Live</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>*Lecture - Online Live</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>100</v>
+        <v>458</v>
       </c>
       <c r="H40" t="n">
-        <v>176</v>
+        <v>426</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>26-30, 32-37</t>
+          <t>(12,)</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>840</v>
+      </c>
+      <c r="N40" t="n">
+        <v>900</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -3466,114 +3378,106 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>ESB_Lecture Theatre No. 1</t>
-        </is>
-      </c>
+          <t>*Central</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Entrepreneurship in the Mathematical Sciences</t>
+          <t>Engineering Mathematics 1a</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MATH10099</t>
+          <t>MATH08074</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MATH4 Entrepreneurship in Maths Sci - Workshop &lt;9-16, 18&gt;</t>
+          <t>MATH1 Engineering Mathematics 1a - Lecture &lt;12&gt;</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>*Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="H41" t="n">
-        <v>43</v>
+        <v>362</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>9-16, 18</t>
+          <t>(12,)</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>660</v>
+      </c>
+      <c r="N41" t="n">
+        <v>720</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>JCMB</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>JCMB_4325C - Teaching Studio</t>
+          <t>AT_Lecture Theatre 2</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Entrepreneurship in the Mathematical Sciences</t>
+          <t>Engineering Mathematics 1a</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MATH10099</t>
+          <t>MATH08074</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MATH4 Entrepreneurship in Maths Sci - Workshop &lt;19&gt;</t>
+          <t>MATH1 Engineering Mathematics 1a - Studio Workshop/38 &lt;14&gt;</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3582,15 +3486,15 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H42" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>(14,)</t>
         </is>
       </c>
       <c r="K42" t="n">
@@ -3598,58 +3502,54 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>720</v>
+      </c>
+      <c r="N42" t="n">
+        <v>780</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>JCMB</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>JCMB_4325C - Teaching Studio</t>
+          <t>AT_2.12</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Entrepreneurship in the Mathematical Sciences</t>
+          <t>Engineering Mathematics 1a</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MATH10099</t>
+          <t>MATH08074</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MATH4 Entrepreneurship in Maths Sci - Workshop &lt;17&gt;</t>
+          <t>MATH1 Engineering Mathematics 1a - Studio Workshop/38 &lt;15&gt;</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3658,15 +3558,15 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H43" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>(15,)</t>
         </is>
       </c>
       <c r="K43" t="n">
@@ -3674,126 +3574,126 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>720</v>
+      </c>
+      <c r="N43" t="n">
+        <v>780</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>JCMB</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>JCMB_4325C - Teaching Studio</t>
+          <t>40GS_LG.09</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Finance, Risk and Uncertainty</t>
+          <t>Engineering Mathematics 1b, Mathematics for the Natural Sciences 1b</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MATH11088</t>
+          <t>MATH08075</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MATHO Finance, Risk and Uncertainty - Lecture (Online)</t>
+          <t>MATH1 Engineering Mathematics/ Mathematics for Natural Science 1B - Lecture/overflow</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>*Lecture - Online Live</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H44" t="n">
-        <v>69</v>
+        <v>175</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>720</v>
+      </c>
+      <c r="N44" t="n">
+        <v>780</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
         <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>02:00</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>*King's Buildings</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>ESB_Lecture Theatre No. 1</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Finance, Risk and Uncertainty</t>
+          <t>Engineering Mathematics 1b, Mathematics for the Natural Sciences 1b</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MATH11088</t>
+          <t>MATH08075</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MATHO Finance, Risk and Uncertainty - Lecture &lt;16-18&gt;</t>
+          <t>MATH1 Engineering Mathematics/ Mathematics for Natural Science 1B - Lecture</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3802,74 +3702,70 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="H45" t="n">
-        <v>69</v>
+        <v>401</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>16-18</t>
+          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>720</v>
+      </c>
+      <c r="N45" t="n">
+        <v>780</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>JCMB</t>
+          <t>Nucleus</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>JCMB_Lecture Theatre A</t>
+          <t>NUC_1.14 - Oak Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Finance, Risk and Uncertainty</t>
+          <t>Engineering Mathematics 1b, Mathematics for the Natural Sciences 1b</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MATH11088</t>
+          <t>MATH08075</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MATHO Finance, Risk and Uncertainty - Lecture &lt;15&gt;</t>
+          <t>MATH1 Engineering Mathematics/ Mathematics for Natural Science 1B - Lecture/overflow</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3878,43 +3774,39 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H46" t="n">
-        <v>69</v>
+        <v>176</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>720</v>
+      </c>
+      <c r="N46" t="n">
+        <v>780</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -3924,28 +3816,28 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>JBB_Theatre 100</t>
+          <t>ESB_Lecture Theatre No. 1</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>345</v>
+        <v>287</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Fourier Analysis</t>
+          <t>Engineering Mathematics 1b, Mathematics for the Natural Sciences 1b</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MATH10051</t>
+          <t>MATH08075</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MATH4 Fourier Analysis - Lecture &lt;26-27&gt;</t>
+          <t>MATH1 Engineering Mathematics/ Mathematics for Natural Science 1B - Lecture</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3954,34 +3846,30 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>35</v>
+        <v>400</v>
       </c>
       <c r="H47" t="n">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>26-27</t>
+          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>720</v>
+      </c>
+      <c r="N47" t="n">
+        <v>780</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -3990,74 +3878,74 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>JCMB</t>
+          <t>Nucleus</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>JCMB_5327</t>
+          <t>NUC_1.14 - Oak Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>346</v>
+        <v>669</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Fourier Analysis</t>
+          <t>Introduction to Data Science</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MATH10051</t>
+          <t>MATH08077</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MATH4 Fourier Analysis - Lecture &lt;28-30, 32-37&gt;</t>
+          <t>MATH1 Introduction to Data Science - Lecture Online</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>*Lecture - Online Live</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="H48" t="n">
-        <v>20</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>180</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>28-30, 32-37</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K48" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>600</v>
+      </c>
+      <c r="N48" t="n">
+        <v>660</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4066,78 +3954,66 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>JCMB</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>JCMB_6206</t>
-        </is>
-      </c>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>412</v>
+        <v>670</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Fundamentals of Pure Mathematics</t>
+          <t>Introduction to Data Science</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MATH08064</t>
+          <t>MATH08077</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MATH2 Fundamentals of Pure Mathematics - Lecture/main</t>
+          <t>MATH1 Introduction to Data Science - Student Hours Online</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>Self Study</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>374</v>
+        <v>15</v>
       </c>
       <c r="H49" t="n">
-        <v>372</v>
+        <v>180</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>* SEM 2</t>
+          <t>* SEM 1 - Weeks 2-11 only</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>26-30, 32-37</t>
+          <t>(10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>660</v>
+      </c>
+      <c r="N49" t="n">
+        <v>720</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4146,38 +4022,38 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>SB_Main Lecture Theatre</t>
+          <t>CMB_Seminar Room 6</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>413</v>
+        <v>345</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Fundamentals of Pure Mathematics</t>
+          <t>Fourier Analysis</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MATH08064</t>
+          <t>MATH10051</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MATH2 Fundamentals of Pure Mathematics - Lecture/overflow</t>
+          <t>MATH4 Fourier Analysis - Lecture &lt;26-27&gt;</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4186,38 +4062,30 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="H50" t="n">
-        <v>87</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>* SEM 2</t>
-        </is>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>26-30, 32-37</t>
+          <t>(26, 27)</t>
         </is>
       </c>
       <c r="K50" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>720</v>
+      </c>
+      <c r="N50" t="n">
+        <v>780</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4226,38 +4094,38 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>JCMB</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>JCMB_Lecture Theatre A</t>
+          <t>JCMB_5327</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>414</v>
+        <v>346</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Fundamentals of Pure Mathematics</t>
+          <t>Fourier Analysis</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MATH08064</t>
+          <t>MATH10051</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MATH2 Fundamentals of Pure Mathematics - Lecture/main</t>
+          <t>MATH4 Fourier Analysis - Lecture &lt;28-30, 32-37&gt;</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4266,38 +4134,30 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>400</v>
+        <v>35</v>
       </c>
       <c r="H51" t="n">
-        <v>370</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>* SEM 2</t>
-        </is>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>26-30, 32-37</t>
+          <t>(28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
         </is>
       </c>
       <c r="K51" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>960</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1020</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -4306,50 +4166,50 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>Nucleus</t>
+          <t>JCMB</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>NUC_1.14 - Oak Lecture Theatre</t>
+          <t>JCMB_6206</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>415</v>
+        <v>902</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Fundamentals of Pure Mathematics</t>
+          <t>Numerical Ordinary Differential Equations and Applications</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MATH08064</t>
+          <t>MATH10060</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MATH2 Fundamentals of Pure Mathematics - Lecture/overflow</t>
+          <t>MATH3 Numerical Ord Diff Eqn &amp; Appl - Q&amp;A Session</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>Q&amp;A Session</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="H52" t="n">
-        <v>89</v>
+        <v>196</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -4358,7 +4218,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>26-30, 32-37</t>
+          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
         </is>
       </c>
       <c r="K52" t="n">
@@ -4366,18 +4226,14 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>1020</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1080</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -4396,64 +4252,60 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>JCMB_Lecture Theatre C</t>
+          <t>JCMB_Lecture Theatre A</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>422</v>
+        <v>866</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Further Complex Variables</t>
+          <t>Multivariate Data Analysis</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MATH11233</t>
+          <t>MATH10064</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MATH5 Further Complex Variables - Lecture &lt;27-30, 32-37&gt;</t>
+          <t>MATH4 Multivariate Data Analysis - Wk 1 Online Workshop</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>*Workshop - Online Live</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="H53" t="n">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>27-30, 32-37</t>
+          <t>(26,)</t>
         </is>
       </c>
       <c r="K53" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>600</v>
+      </c>
+      <c r="N53" t="n">
+        <v>660</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -4462,74 +4314,62 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>JCMB</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>JCMB_5327</t>
-        </is>
-      </c>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>423</v>
+        <v>491</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Further Complex Variables</t>
+          <t>Honours Analysis</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MATH11233</t>
+          <t>MATH10068</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MATH5 Further Complex Variables - Lecture &lt;26&gt;</t>
+          <t>MATH3 Honours Analysis - Online Q&amp;A</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>Q&amp;A Session</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="H54" t="n">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>900</v>
+      </c>
+      <c r="N54" t="n">
+        <v>960</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -4538,23 +4378,15 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>01:00</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>JCMB</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>JCMB_5326</t>
-        </is>
-      </c>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4569,7 +4401,7 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MATH4 Group Theory - Workshop &lt;13, 15, 17, 19&gt;</t>
+          <t>MATH4 Group Theory - Workshop &lt;11&gt;</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4586,35 +4418,31 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>13, 15, 17, 19</t>
+          <t>(11,)</t>
         </is>
       </c>
       <c r="K55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>Monday</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
+      <c r="M55" t="n">
+        <v>960</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1080</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -4630,7 +4458,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4645,7 +4473,7 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MATH4 Group Theory - Workshop &lt;11&gt;</t>
+          <t>MATH4 Group Theory - Workshop &lt;13, 15, 17, 19&gt;</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4662,35 +4490,31 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>(13, 15, 17, 19)</t>
         </is>
       </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>Monday</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
+      <c r="M56" t="n">
+        <v>960</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1020</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -4706,322 +4530,302 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>491</v>
+        <v>290</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Honours Analysis</t>
+          <t>Entrepreneurship in the Mathematical Sciences</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>MATH10068</t>
+          <t>MATH10099</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MATH3 Honours Analysis - Online Q&amp;A</t>
+          <t>MATH4 Entrepreneurship in Maths Sci - Workshop &lt;9-16, 18&gt;</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Q&amp;A Session</t>
+          <t>*Workshop</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="H57" t="n">
-        <v>190</v>
+        <v>43</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>9-19</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 18)</t>
         </is>
       </c>
       <c r="K57" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>Friday</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
+      <c r="M57" t="n">
+        <v>840</v>
+      </c>
+      <c r="N57" t="n">
+        <v>960</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>JCMB</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>JCMB_4325C - Teaching Studio</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>669</v>
+        <v>292</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Introduction to Data Science</t>
+          <t>Entrepreneurship in the Mathematical Sciences</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MATH08077</t>
+          <t>MATH10099</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MATH1 Introduction to Data Science - Lecture Online</t>
+          <t>MATH4 Entrepreneurship in Maths Sci - Workshop &lt;17&gt;</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>*Lecture - Online Live</t>
+          <t>*Workshop</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="H58" t="n">
-        <v>180</v>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>* SEM 1</t>
-        </is>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>9-19</t>
+          <t>(17,)</t>
         </is>
       </c>
       <c r="K58" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>840</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1080</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>JCMB</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>JCMB_4325C - Teaching Studio</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>670</v>
+        <v>291</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Introduction to Data Science</t>
+          <t>Entrepreneurship in the Mathematical Sciences</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MATH08077</t>
+          <t>MATH10099</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>MATH1 Introduction to Data Science - Student Hours Online</t>
+          <t>MATH4 Entrepreneurship in Maths Sci - Workshop &lt;19&gt;</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Self Study</t>
+          <t>*Workshop</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H59" t="n">
-        <v>180</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>* SEM 1 - Weeks 2-11 only</t>
-        </is>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>(19,)</t>
         </is>
       </c>
       <c r="K59" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>840</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1080</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>*Central</t>
+          <t>JCMB</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>CMB_Seminar Room 6</t>
+          <t>JCMB_4325C - Teaching Studio</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>731</v>
+        <v>321</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Introduction to Linear Algebra</t>
+          <t>Finance, Risk and Uncertainty</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MATH08057</t>
+          <t>MATH11088</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>MATH1 Intro to Linear Algebra - Lecture/12:10</t>
+          <t>MATHO Finance, Risk and Uncertainty - Lecture (Online)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>*Lecture - Online Live</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="H60" t="n">
-        <v>291</v>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>* SEM 1</t>
-        </is>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>9-19</t>
+          <t>(9, 10, 11, 12, 13)</t>
         </is>
       </c>
       <c r="K60" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>660</v>
+      </c>
+      <c r="N60" t="n">
+        <v>780</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>*Central</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>GALT_ Gordon Aikman Lecture Theatre</t>
-        </is>
-      </c>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>732</v>
+        <v>323</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Introduction to Linear Algebra</t>
+          <t>Finance, Risk and Uncertainty</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MATH08057</t>
+          <t>MATH11088</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MATH1 Intro to Linear Algebra - Lecture/13:10</t>
+          <t>MATHO Finance, Risk and Uncertainty - Lecture &lt;15&gt;</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5030,78 +4834,70 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="H61" t="n">
-        <v>296</v>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>* SEM 1</t>
-        </is>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>9-19</t>
+          <t>(15,)</t>
         </is>
       </c>
       <c r="K61" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>900</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1020</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>*Central</t>
+          <t>*King's Buildings</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>GALT_ Gordon Aikman Lecture Theatre</t>
+          <t>JBB_Theatre 100</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>733</v>
+        <v>322</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Introduction to Linear Algebra</t>
+          <t>Finance, Risk and Uncertainty</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>MATH08057</t>
+          <t>MATH11088</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>MATH1 Intro to Linear Algebra - Lecture/13:10 &lt;9-11, 13-19&gt;</t>
+          <t>MATHO Finance, Risk and Uncertainty - Lecture &lt;16-18&gt;</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5110,110 +4906,102 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="H62" t="n">
-        <v>296</v>
+        <v>69</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>9-11, 13-19</t>
+          <t>(16, 17, 18)</t>
         </is>
       </c>
       <c r="K62" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>Friday</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
+      <c r="M62" t="n">
+        <v>900</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1020</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>*Central</t>
+          <t>JCMB</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>GALT_ Gordon Aikman Lecture Theatre</t>
+          <t>JCMB_Lecture Theatre A</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>734</v>
+        <v>221</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Introduction to Linear Algebra</t>
+          <t>Credit Scoring</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MATH08057</t>
+          <t>MATH11148</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>MATH1 Intro to Linear Algebra - Lecture/13:10 &lt;12&gt;</t>
+          <t>MATHO Credit Scoring - Computer Workshop/01 &lt;27-28&gt;</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>*Lecture - Online Pre-recorded</t>
+          <t>Computer Workshop</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
       <c r="H63" t="n">
-        <v>296</v>
+        <v>16</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>(27, 28)</t>
         </is>
       </c>
       <c r="K63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>900</v>
+      </c>
+      <c r="N63" t="n">
+        <v>960</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -5222,66 +5010,70 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>01:00</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>*King's Buildings</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>735</v>
+        <v>217</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Introduction to Linear Algebra</t>
+          <t>Credit Scoring</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>MATH08057</t>
+          <t>MATH11148</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MATH1 Intro to Linear Algebra - Lecture/12:10 &lt;9-11, 13-19&gt;</t>
+          <t>MATHO Credit Scoring - Computer Workshop/02 &lt;27-28&gt;</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>Computer Workshop</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
       <c r="H64" t="n">
-        <v>291</v>
+        <v>15</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>9-11, 13-19</t>
+          <t>(27, 28)</t>
         </is>
       </c>
       <c r="K64" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>900</v>
+      </c>
+      <c r="N64" t="n">
+        <v>960</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -5290,74 +5082,70 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>*Central</t>
+          <t>*King's Buildings</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>GALT_ Gordon Aikman Lecture Theatre</t>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>736</v>
+        <v>219</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Introduction to Linear Algebra</t>
+          <t>Credit Scoring</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>MATH08057</t>
+          <t>MATH11148</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>MATH1 Intro to Linear Algebra - Lecture/12:10 &lt;12&gt;</t>
+          <t>MATHO Credit Scoring - Computer Workshop/03 &lt;27-28&gt;</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>*Lecture - Online Pre-recorded</t>
+          <t>Computer Workshop</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
       <c r="H65" t="n">
-        <v>291</v>
+        <v>15</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>(27, 28)</t>
         </is>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>900</v>
+      </c>
+      <c r="N65" t="n">
+        <v>960</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -5366,70 +5154,70 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>*Central</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr"/>
+          <t>*King's Buildings</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>737</v>
+        <v>203</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Introduction to Linear Algebra</t>
+          <t>Credit Scoring</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MATH08057</t>
+          <t>MATH11148</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MATH1 Intro to Linear Algebra - Lecture/11:10</t>
+          <t>MATHO Credit Scoring - Computer Workshop/04 &lt;27-28&gt;</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>Computer Workshop</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
       <c r="H66" t="n">
-        <v>290</v>
+        <v>16</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>(27, 28)</t>
         </is>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>Monday</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
+      <c r="M66" t="n">
+        <v>900</v>
+      </c>
+      <c r="N66" t="n">
+        <v>960</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -5438,74 +5226,70 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>*Central</t>
+          <t>*King's Buildings</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>GALT_ Gordon Aikman Lecture Theatre</t>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>738</v>
+        <v>205</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Introduction to Linear Algebra</t>
+          <t>Credit Scoring</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MATH08057</t>
+          <t>MATH11148</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MATH1 Intro to Linear Algebra - Lecture/12:10</t>
+          <t>MATHO Credit Scoring - Computer Workshop/05 &lt;27-28&gt;</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>Computer Workshop</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>400</v>
+        <v>14</v>
       </c>
       <c r="H67" t="n">
-        <v>297</v>
+        <v>15</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>(27, 28)</t>
         </is>
       </c>
       <c r="K67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>Monday</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
+      <c r="M67" t="n">
+        <v>900</v>
+      </c>
+      <c r="N67" t="n">
+        <v>960</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -5514,78 +5298,70 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>*Central</t>
+          <t>*King's Buildings</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>GALT_ Gordon Aikman Lecture Theatre</t>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>765</v>
+        <v>207</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Introductory Mathematics with Applications</t>
+          <t>Credit Scoring</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MATH07004</t>
+          <t>MATH11148</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MATH1 Introductory Mathematics with Applications -  Q&amp;A</t>
+          <t>MATHO Credit Scoring - Computer Workshop/06 &lt;27-28&gt;</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>*Lecture - Online Live</t>
+          <t>Computer Workshop</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="H68" t="n">
-        <v>40</v>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>* SEM 1 - Weeks 2-11 only</t>
-        </is>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>10-19</t>
+          <t>(27, 28)</t>
         </is>
       </c>
       <c r="K68" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>960</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1020</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -5594,66 +5370,70 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>*King's Buildings</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>866</v>
+        <v>209</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Multivariate Data Analysis</t>
+          <t>Credit Scoring</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MATH10064</t>
+          <t>MATH11148</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MATH4 Multivariate Data Analysis - Wk 1 Online Workshop</t>
+          <t>MATHO Credit Scoring - Computer Workshop/07 &lt;27-28&gt;</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>*Workshop - Online Live</t>
+          <t>Computer Workshop</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="H69" t="n">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>(27, 28)</t>
         </is>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>960</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1020</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -5662,70 +5442,70 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>01:00</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>*King's Buildings</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>902</v>
+        <v>211</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Numerical Ordinary Differential Equations and Applications</t>
+          <t>Credit Scoring</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>MATH10060</t>
+          <t>MATH11148</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MATH3 Numerical Ord Diff Eqn &amp; Appl - Q&amp;A Session</t>
+          <t>MATHO Credit Scoring - Computer Workshop/08 &lt;27-28&gt;</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Q&amp;A Session</t>
+          <t>Computer Workshop</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="H70" t="n">
-        <v>196</v>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>* SEM 2</t>
-        </is>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>26-30, 32-37</t>
+          <t>(27, 28)</t>
         </is>
       </c>
       <c r="K70" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>960</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1020</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -5734,7 +5514,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
@@ -5744,68 +5524,60 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>JCMB_Lecture Theatre A</t>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>956</v>
+        <v>213</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Credit Scoring</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>MATH08066</t>
+          <t>MATH11148</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MATH2 Probability - Lecture/main</t>
+          <t>MATHO Credit Scoring - Computer Workshop/09 &lt;27-28&gt;</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>Computer Workshop</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="H71" t="n">
-        <v>265</v>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>* SEM 1</t>
-        </is>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>9-19</t>
+          <t>(27, 28)</t>
         </is>
       </c>
       <c r="K71" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>960</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1020</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -5814,7 +5586,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
@@ -5824,68 +5596,60 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>ASH_Lecture Theatre 1</t>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>957</v>
+        <v>215</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Credit Scoring</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>MATH08066</t>
+          <t>MATH11148</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>MATH2 Probability - Lecture/overflow</t>
+          <t>MATHO Credit Scoring - Computer Workshop/10 &lt;27-28&gt;</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>Computer Workshop</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="H72" t="n">
-        <v>190</v>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>* SEM 1</t>
-        </is>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>9-19</t>
+          <t>(27, 28)</t>
         </is>
       </c>
       <c r="K72" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>960</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1020</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -5894,78 +5658,70 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>JCMB</t>
+          <t>*King's Buildings</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>JCMB_Lecture Theatre A</t>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>958</v>
+        <v>220</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Credit Scoring</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>MATH08066</t>
+          <t>MATH11148</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>MATH2 Probability - Lecture/main</t>
+          <t>MATHO Credit Scoring - Computer Workshop/01 &lt;29, 33&gt;</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>Computer Workshop</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="H73" t="n">
-        <v>291</v>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>* SEM 1</t>
-        </is>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>9-19</t>
+          <t>(29, 33)</t>
         </is>
       </c>
       <c r="K73" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>840</v>
+      </c>
+      <c r="N73" t="n">
+        <v>900</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -5974,7 +5730,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
@@ -5984,68 +5740,60 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>SB_Main Lecture Theatre</t>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>959</v>
+        <v>216</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Credit Scoring</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>MATH08066</t>
+          <t>MATH11148</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>MATH2 Probability - Lecture/overflow</t>
+          <t>MATHO Credit Scoring - Computer Workshop/02 &lt;29, 33&gt;</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>Computer Workshop</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="H74" t="n">
-        <v>164</v>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>* SEM 1</t>
-        </is>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>9-19</t>
+          <t>(29, 33)</t>
         </is>
       </c>
       <c r="K74" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>840</v>
+      </c>
+      <c r="N74" t="n">
+        <v>900</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -6054,78 +5802,70 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>JCMB</t>
+          <t>*King's Buildings</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>JCMB_Lecture Theatre A</t>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>971</v>
+        <v>218</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Proofs and Problem Solving</t>
+          <t>Credit Scoring</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>MATH08059</t>
+          <t>MATH11148</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>MATH1 Proofs and Problem Solving - Lecture/9:00</t>
+          <t>MATHO Credit Scoring - Computer Workshop/03 &lt;29, 33&gt;</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>Computer Workshop</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="H75" t="n">
-        <v>199</v>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>* SEM 2</t>
-        </is>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>26-30, 32-37</t>
+          <t>(29, 33)</t>
         </is>
       </c>
       <c r="K75" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>840</v>
+      </c>
+      <c r="N75" t="n">
+        <v>900</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -6134,78 +5874,70 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>40 George Square Lecture Theatres</t>
+          <t>*King's Buildings</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>40GS_Lecture Theatre C</t>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>972</v>
+        <v>202</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Proofs and Problem Solving</t>
+          <t>Credit Scoring</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>MATH08059</t>
+          <t>MATH11148</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>MATH1 Proofs and Problem Solving - Lecture/10:00</t>
+          <t>MATHO Credit Scoring - Computer Workshop/04 &lt;29, 33&gt;</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>Computer Workshop</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="H76" t="n">
-        <v>193</v>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>* SEM 2</t>
-        </is>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>26-30, 32-37</t>
+          <t>(29, 33)</t>
         </is>
       </c>
       <c r="K76" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>840</v>
+      </c>
+      <c r="N76" t="n">
+        <v>900</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -6214,78 +5946,70 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>40 George Square Lecture Theatres</t>
+          <t>*King's Buildings</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>40GS_Lecture Theatre C</t>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>973</v>
+        <v>204</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Proofs and Problem Solving</t>
+          <t>Credit Scoring</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>MATH08059</t>
+          <t>MATH11148</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>MATH1 Proofs and Problem Solving - Lecture/9:00</t>
+          <t>MATHO Credit Scoring - Computer Workshop/05 &lt;29, 33&gt;</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>Computer Workshop</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>250</v>
+        <v>14</v>
       </c>
       <c r="H77" t="n">
-        <v>202</v>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>* SEM 2</t>
-        </is>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>26-30, 32-37</t>
+          <t>(29, 33)</t>
         </is>
       </c>
       <c r="K77" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>840</v>
+      </c>
+      <c r="N77" t="n">
+        <v>900</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -6294,78 +6018,70 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>40 George Square Lecture Theatres</t>
+          <t>*King's Buildings</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>40GS_Lecture Theatre C</t>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>974</v>
+        <v>206</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Proofs and Problem Solving</t>
+          <t>Credit Scoring</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>MATH08059</t>
+          <t>MATH11148</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>MATH1 Proofs and Problem Solving - Lecture/10:00</t>
+          <t>MATHO Credit Scoring - Computer Workshop/06 &lt;29, 33&gt;</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>Computer Workshop</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="H78" t="n">
-        <v>191</v>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>* SEM 2</t>
-        </is>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>26-30, 32-37</t>
+          <t>(29, 33)</t>
         </is>
       </c>
       <c r="K78" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>900</v>
+      </c>
+      <c r="N78" t="n">
+        <v>960</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -6374,78 +6090,70 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>40 George Square Lecture Theatres</t>
+          <t>*King's Buildings</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>40GS_Lecture Theatre C</t>
+          <t>JCMB_1512</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>1042</v>
+        <v>208</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Several Variable Calculus and Differential Equations</t>
+          <t>Credit Scoring</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>MATH08063</t>
+          <t>MATH11148</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>MATH2 Sev Var Calc Diff Eq - Lecture/main</t>
+          <t>MATHO Credit Scoring - Computer Workshop/07 &lt;29, 33&gt;</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>Computer Workshop</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>350</v>
+        <v>15</v>
       </c>
       <c r="H79" t="n">
-        <v>302</v>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>* SEM 1</t>
-        </is>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>9-19</t>
+          <t>(29, 33)</t>
         </is>
       </c>
       <c r="K79" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>900</v>
+      </c>
+      <c r="N79" t="n">
+        <v>960</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -6454,7 +6162,7 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
@@ -6464,68 +6172,60 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>SB_Main Lecture Theatre</t>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>1043</v>
+        <v>210</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Several Variable Calculus and Differential Equations</t>
+          <t>Credit Scoring</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>MATH08063</t>
+          <t>MATH11148</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>MATH2 Sev Var Calc Diff Eq - Lecture/overflow</t>
+          <t>MATHO Credit Scoring - Computer Workshop/08 &lt;29, 33&gt;</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>Computer Workshop</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="H80" t="n">
-        <v>146</v>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>* SEM 1</t>
-        </is>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>9-19</t>
+          <t>(29, 33)</t>
         </is>
       </c>
       <c r="K80" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>900</v>
+      </c>
+      <c r="N80" t="n">
+        <v>960</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -6534,7 +6234,7 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
@@ -6544,68 +6244,60 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>JCMB_Lecture Theatre B</t>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>1044</v>
+        <v>212</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Several Variable Calculus and Differential Equations</t>
+          <t>Credit Scoring</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>MATH08063</t>
+          <t>MATH11148</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>MATH2 Sev Var Calc Diff Eq - Lecture/main</t>
+          <t>MATHO Credit Scoring - Computer Workshop/09 &lt;29, 33&gt;</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>Computer Workshop</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>500</v>
+        <v>15</v>
       </c>
       <c r="H81" t="n">
-        <v>448</v>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>* SEM 1</t>
-        </is>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>9-19</t>
+          <t>(29, 33)</t>
         </is>
       </c>
       <c r="K81" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>Monday</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
+      <c r="M81" t="n">
+        <v>900</v>
+      </c>
+      <c r="N81" t="n">
+        <v>960</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -6614,7 +6306,7 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
@@ -6624,68 +6316,60 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>ASH_Lecture Theatre 1</t>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>1045</v>
+        <v>214</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Several Variable Calculus and Differential Equations</t>
+          <t>Credit Scoring</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>MATH08063</t>
+          <t>MATH11148</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>MATH2 Sev Var Calc Diff Eq - Lecture/main</t>
+          <t>MATHO Credit Scoring - Computer Workshop/10 &lt;29, 33&gt;</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>Computer Workshop</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>350</v>
+        <v>14</v>
       </c>
       <c r="H82" t="n">
-        <v>301</v>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>* SEM 1</t>
-        </is>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>9-19</t>
+          <t>(29, 33)</t>
         </is>
       </c>
       <c r="K82" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>900</v>
+      </c>
+      <c r="N82" t="n">
+        <v>960</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -6694,7 +6378,7 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
@@ -6704,28 +6388,28 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>SB_Main Lecture Theatre</t>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>1046</v>
+        <v>40</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Several Variable Calculus and Differential Equations</t>
+          <t>Bayesian Data Analysis</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>MATH08063</t>
+          <t>MATH11175</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MATH2 Sev Var Calc Diff Eq - Lecture/overflow</t>
+          <t>MATHO Bayesian Data Analysis - Lecture/01</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6737,46 +6421,42 @@
         <v>150</v>
       </c>
       <c r="H83" t="n">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>* SEM 1</t>
+          <t>* SEM 2 - Odd weeks only</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>9-19</t>
+          <t>(26, 28, 30, 33, 35, 37)</t>
         </is>
       </c>
       <c r="K83" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>780</v>
+      </c>
+      <c r="N83" t="n">
+        <v>900</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
         <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>01:00</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
       <c r="Q83" t="inlineStr">
         <is>
           <t>*King's Buildings</t>
@@ -6784,28 +6464,28 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>JCMB_Lecture Theatre B</t>
+          <t>NUC_B.01 - Alder Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>1047</v>
+        <v>423</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Several Variable Calculus and Differential Equations</t>
+          <t>Further Complex Variables</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>MATH08063</t>
+          <t>MATH11233</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>MATH2 Sev Var Calc Diff Eq - Lecture/main</t>
+          <t>MATH5 Further Complex Variables - Lecture &lt;26&gt;</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6814,38 +6494,30 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="H84" t="n">
-        <v>302</v>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>* SEM 1</t>
-        </is>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>9-19</t>
+          <t>(26,)</t>
         </is>
       </c>
       <c r="K84" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>780</v>
+      </c>
+      <c r="N84" t="n">
+        <v>840</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -6854,38 +6526,38 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>JCMB</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>SB_Main Lecture Theatre</t>
+          <t>JCMB_5326</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>1048</v>
+        <v>422</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Several Variable Calculus and Differential Equations</t>
+          <t>Further Complex Variables</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>MATH08063</t>
+          <t>MATH11233</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MATH2 Sev Var Calc Diff Eq - Lecture/overflow</t>
+          <t>MATH5 Further Complex Variables - Lecture &lt;27-30, 32-37&gt;</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6894,38 +6566,30 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="H85" t="n">
-        <v>146</v>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>* SEM 1</t>
-        </is>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>9-19</t>
+          <t>(27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
         </is>
       </c>
       <c r="K85" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>780</v>
+      </c>
+      <c r="N85" t="n">
+        <v>840</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -6934,17 +6598,17 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>JCMB</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>JCMB_Lecture Theatre B</t>
+          <t>JCMB_5327</t>
         </is>
       </c>
     </row>

--- a/weird_slash.xlsx
+++ b/weird_slash.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R85"/>
+  <dimension ref="A1:R106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,22 +1442,22 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>971</v>
+        <v>90</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Proofs and Problem Solving</t>
+          <t>Calculus and its Applications</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MATH08059</t>
+          <t>MATH08058</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MATH1 Proofs and Problem Solving - Lecture/9:00</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/03</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1466,34 +1466,30 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="H15" t="n">
-        <v>199</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>* SEM 2</t>
-        </is>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
+          <t>(27, 30, 34, 37)</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>540</v>
+        <v>780</v>
       </c>
       <c r="N15" t="n">
-        <v>600</v>
+        <v>840</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1502,38 +1498,38 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>40 George Square Lecture Theatres</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>40GS_Lecture Theatre C</t>
+          <t>40GS_Lecture Theatre B</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>972</v>
+        <v>88</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Proofs and Problem Solving</t>
+          <t>Calculus and its Applications</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MATH08059</t>
+          <t>MATH08058</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MATH1 Proofs and Problem Solving - Lecture/10:00</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/01</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1542,34 +1538,30 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="H16" t="n">
-        <v>193</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>* SEM 2</t>
-        </is>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
+          <t>(27, 30, 34, 37)</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>600</v>
+        <v>780</v>
       </c>
       <c r="N16" t="n">
-        <v>660</v>
+        <v>840</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1578,38 +1570,38 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>40 George Square Lecture Theatres</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>40GS_Lecture Theatre C</t>
+          <t>GALT_ Gordon Aikman Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>973</v>
+        <v>149</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Proofs and Problem Solving</t>
+          <t>Calculus and its Applications</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MATH08059</t>
+          <t>MATH08058</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MATH1 Proofs and Problem Solving - Lecture/9:00</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/03</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1618,34 +1610,30 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="H17" t="n">
-        <v>202</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>* SEM 2</t>
-        </is>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
+          <t>(27, 30, 34, 37)</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>540</v>
+        <v>780</v>
       </c>
       <c r="N17" t="n">
-        <v>600</v>
+        <v>840</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1654,38 +1642,38 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>40 George Square Lecture Theatres</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>40GS_Lecture Theatre C</t>
+          <t>GALT_ Gordon Aikman Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>974</v>
+        <v>98</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Proofs and Problem Solving</t>
+          <t>Calculus and its Applications</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MATH08059</t>
+          <t>MATH08058</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MATH1 Proofs and Problem Solving - Lecture/10:00</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1694,23 +1682,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="H18" t="n">
-        <v>191</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>* SEM 2</t>
-        </is>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
+          <t>(27, 30, 34, 37)</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1718,10 +1702,10 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>600</v>
+        <v>780</v>
       </c>
       <c r="N18" t="n">
-        <v>660</v>
+        <v>840</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1730,12 +1714,12 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>40 George Square Lecture Theatres</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1746,22 +1730,22 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>1043</v>
+        <v>96</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Several Variable Calculus and Differential Equations</t>
+          <t>Calculus and its Applications</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MATH08063</t>
+          <t>MATH08058</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MATH2 Sev Var Calc Diff Eq - Lecture/overflow</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/01</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1770,34 +1754,30 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="H19" t="n">
-        <v>146</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>* SEM 1</t>
-        </is>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
+          <t>(27, 30, 34, 37)</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>720</v>
+        <v>780</v>
       </c>
       <c r="N19" t="n">
-        <v>780</v>
+        <v>840</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1806,38 +1786,38 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>JCMB_Lecture Theatre B</t>
+          <t>GALT_ Gordon Aikman Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>1042</v>
+        <v>80</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Several Variable Calculus and Differential Equations</t>
+          <t>Calculus and its Applications</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MATH08063</t>
+          <t>MATH08058</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MATH2 Sev Var Calc Diff Eq - Lecture/main</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/02</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1846,34 +1826,30 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>350</v>
+        <v>229</v>
       </c>
       <c r="H20" t="n">
-        <v>302</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>* SEM 1</t>
-        </is>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
+          <t>(27, 30, 34, 37)</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>720</v>
+        <v>780</v>
       </c>
       <c r="N20" t="n">
-        <v>780</v>
+        <v>840</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1882,38 +1858,38 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>SB_Main Lecture Theatre</t>
+          <t>GALT_ Gordon Aikman Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>1044</v>
+        <v>92</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Several Variable Calculus and Differential Equations</t>
+          <t>Calculus and its Applications</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MATH08063</t>
+          <t>MATH08058</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MATH2 Sev Var Calc Diff Eq - Lecture/main</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/02</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1922,23 +1898,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>500</v>
+        <v>229</v>
       </c>
       <c r="H21" t="n">
-        <v>448</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>* SEM 1</t>
-        </is>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
+          <t>(28, 32, 35)</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1946,10 +1918,10 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>720</v>
+        <v>780</v>
       </c>
       <c r="N21" t="n">
-        <v>780</v>
+        <v>840</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1958,38 +1930,38 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>ASH_Lecture Theatre 1</t>
+          <t>40GS_Lecture Theatre B</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>1046</v>
+        <v>81</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Several Variable Calculus and Differential Equations</t>
+          <t>Calculus and its Applications</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MATH08063</t>
+          <t>MATH08058</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MATH2 Sev Var Calc Diff Eq - Lecture/overflow</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/01</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1998,34 +1970,30 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="H22" t="n">
-        <v>147</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>* SEM 1</t>
-        </is>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
+          <t>(28, 32, 35)</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>720</v>
+        <v>780</v>
       </c>
       <c r="N22" t="n">
-        <v>780</v>
+        <v>840</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2034,38 +2002,38 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>JCMB_Lecture Theatre B</t>
+          <t>GALT_ Gordon Aikman Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>1045</v>
+        <v>89</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Several Variable Calculus and Differential Equations</t>
+          <t>Calculus and its Applications</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MATH08063</t>
+          <t>MATH08058</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MATH2 Sev Var Calc Diff Eq - Lecture/main</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/02</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2074,34 +2042,30 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>350</v>
+        <v>229</v>
       </c>
       <c r="H23" t="n">
-        <v>301</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>* SEM 1</t>
-        </is>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
+          <t>(28, 32, 35)</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>720</v>
+        <v>780</v>
       </c>
       <c r="N23" t="n">
-        <v>780</v>
+        <v>840</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2110,38 +2074,38 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>SB_Main Lecture Theatre</t>
+          <t>GALT_ Gordon Aikman Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>1048</v>
+        <v>100</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Several Variable Calculus and Differential Equations</t>
+          <t>Calculus and its Applications</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MATH08063</t>
+          <t>MATH08058</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MATH2 Sev Var Calc Diff Eq - Lecture/overflow</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/02</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2150,34 +2114,30 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="H24" t="n">
-        <v>146</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>* SEM 1</t>
-        </is>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
+          <t>(28, 32, 35)</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>720</v>
+        <v>780</v>
       </c>
       <c r="N24" t="n">
-        <v>780</v>
+        <v>840</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2186,38 +2146,38 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>JCMB_Lecture Theatre B</t>
+          <t>40GS_Lecture Theatre C</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>1047</v>
+        <v>97</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Several Variable Calculus and Differential Equations</t>
+          <t>Calculus and its Applications</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MATH08063</t>
+          <t>MATH08058</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MATH2 Sev Var Calc Diff Eq - Lecture/main</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/02</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2226,34 +2186,30 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>350</v>
+        <v>229</v>
       </c>
       <c r="H25" t="n">
-        <v>302</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>* SEM 1</t>
-        </is>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
+          <t>(28, 32, 35)</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>720</v>
+        <v>780</v>
       </c>
       <c r="N25" t="n">
-        <v>780</v>
+        <v>840</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2262,38 +2218,38 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>SB_Main Lecture Theatre</t>
+          <t>GALT_ Gordon Aikman Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>413</v>
+        <v>94</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Fundamentals of Pure Mathematics</t>
+          <t>Calculus and its Applications</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MATH08064</t>
+          <t>MATH08058</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MATH2 Fundamentals of Pure Mathematics - Lecture/overflow</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/03</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2302,34 +2258,30 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="H26" t="n">
-        <v>87</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>* SEM 2</t>
-        </is>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
+          <t>(28, 32, 35)</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>720</v>
+        <v>780</v>
       </c>
       <c r="N26" t="n">
-        <v>780</v>
+        <v>840</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2338,38 +2290,38 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>JCMB_Lecture Theatre A</t>
+          <t>GALT_ Gordon Aikman Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>412</v>
+        <v>91</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Fundamentals of Pure Mathematics</t>
+          <t>Calculus and its Applications</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MATH08064</t>
+          <t>MATH08058</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MATH2 Fundamentals of Pure Mathematics - Lecture/main</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/01</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2378,34 +2330,30 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>374</v>
+        <v>229</v>
       </c>
       <c r="H27" t="n">
-        <v>372</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>* SEM 2</t>
-        </is>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
+          <t>(29, 33, 36)</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>720</v>
+        <v>780</v>
       </c>
       <c r="N27" t="n">
-        <v>780</v>
+        <v>840</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2414,38 +2362,38 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>SB_Main Lecture Theatre</t>
+          <t>40GS_Lecture Theatre B</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>415</v>
+        <v>82</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fundamentals of Pure Mathematics</t>
+          <t>Calculus and its Applications</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MATH08064</t>
+          <t>MATH08058</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MATH2 Fundamentals of Pure Mathematics - Lecture/overflow</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/02</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2454,34 +2402,30 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="H28" t="n">
-        <v>89</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>* SEM 2</t>
-        </is>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
+          <t>(29, 33, 36)</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>720</v>
+        <v>780</v>
       </c>
       <c r="N28" t="n">
-        <v>780</v>
+        <v>840</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2490,38 +2434,38 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>JCMB_Lecture Theatre C</t>
+          <t>GALT_ Gordon Aikman Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>414</v>
+        <v>87</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Fundamentals of Pure Mathematics</t>
+          <t>Calculus and its Applications</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MATH08064</t>
+          <t>MATH08058</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MATH2 Fundamentals of Pure Mathematics - Lecture/main</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/03</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2530,34 +2474,30 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>400</v>
+        <v>229</v>
       </c>
       <c r="H29" t="n">
-        <v>370</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>* SEM 2</t>
-        </is>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
+          <t>(29, 33, 36)</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>720</v>
+        <v>780</v>
       </c>
       <c r="N29" t="n">
-        <v>780</v>
+        <v>840</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2566,38 +2506,38 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>Nucleus</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>NUC_1.14 - Oak Lecture Theatre</t>
+          <t>GALT_ Gordon Aikman Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>956</v>
+        <v>99</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Calculus and its Applications</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MATH08066</t>
+          <t>MATH08058</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MATH2 Probability - Lecture/main</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/01</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2606,23 +2546,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>300</v>
+        <v>229</v>
       </c>
       <c r="H30" t="n">
-        <v>265</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>* SEM 1</t>
-        </is>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
+          <t>(29, 33, 36)</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2642,38 +2578,38 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>ASH_Lecture Theatre 1</t>
+          <t>40GS_Lecture Theatre C</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>957</v>
+        <v>93</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Calculus and its Applications</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MATH08066</t>
+          <t>MATH08058</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MATH2 Probability - Lecture/overflow</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/01</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2682,23 +2618,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="H31" t="n">
-        <v>190</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>* SEM 1</t>
-        </is>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
+          <t>(29, 33, 36)</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -2718,38 +2650,38 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>JCMB</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>JCMB_Lecture Theatre A</t>
+          <t>GALT_ Gordon Aikman Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>959</v>
+        <v>95</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Calculus and its Applications</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MATH08066</t>
+          <t>MATH08058</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MATH2 Probability - Lecture/overflow</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/03</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2758,27 +2690,23 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>167</v>
+        <v>229</v>
       </c>
       <c r="H32" t="n">
-        <v>164</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>* SEM 1</t>
-        </is>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
+          <t>(29, 33, 36)</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="M32" t="n">
@@ -2794,38 +2722,38 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>JCMB</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>JCMB_Lecture Theatre A</t>
+          <t>GALT_ Gordon Aikman Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>958</v>
+        <v>971</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Proofs and Problem Solving</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MATH08066</t>
+          <t>MATH08059</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MATH2 Probability - Lecture/main</t>
+          <t>MATH1 Proofs and Problem Solving - Lecture/9:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2834,19 +2762,19 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="H33" t="n">
-        <v>291</v>
+        <v>199</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>* SEM 1</t>
+          <t>* SEM 2</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
+          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
         </is>
       </c>
       <c r="K33" t="n">
@@ -2854,14 +2782,14 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>780</v>
+        <v>540</v>
       </c>
       <c r="N33" t="n">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2875,65 +2803,69 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>40 George Square Lecture Theatres</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>SB_Main Lecture Theatre</t>
+          <t>40GS_Lecture Theatre C</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>266</v>
+        <v>972</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Engineering Mathematics 1a</t>
+          <t>Proofs and Problem Solving</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MATH08074</t>
+          <t>MATH08059</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MATH1 Engineering Mathematics 1a - Studio Workshop/38 &lt;9&gt;</t>
+          <t>MATH1 Proofs and Problem Solving - Lecture/10:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>*Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="H34" t="n">
-        <v>47</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>193</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>* SEM 2</t>
+        </is>
+      </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>(9,)</t>
+          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="N34" t="n">
-        <v>780</v>
+        <v>660</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2942,38 +2874,38 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>*Central</t>
+          <t>40 George Square Lecture Theatres</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>AT_2.05,AT_2.07,AT_2.11</t>
+          <t>40GS_Lecture Theatre C</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>276</v>
+        <v>973</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Engineering Mathematics 1a</t>
+          <t>Proofs and Problem Solving</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MATH08074</t>
+          <t>MATH08059</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MATH1 Engineering Mathematics 1a - Lecture/overflow</t>
+          <t>MATH1 Proofs and Problem Solving - Lecture/9:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2982,19 +2914,19 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>* SEM 1</t>
+          <t>* SEM 2</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
+          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
         </is>
       </c>
       <c r="K35" t="n">
@@ -3006,10 +2938,10 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>840</v>
+        <v>540</v>
       </c>
       <c r="N35" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3023,33 +2955,33 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>*Central</t>
+          <t>40 George Square Lecture Theatres</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>OC_Usha Kasera Lecture Theatre</t>
+          <t>40GS_Lecture Theatre C</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>273</v>
+        <v>974</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Engineering Mathematics 1a</t>
+          <t>Proofs and Problem Solving</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MATH08074</t>
+          <t>MATH08059</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MATH1 Engineering Mathematics 1a - Lecture &lt;9-11, 13-19&gt;</t>
+          <t>MATH1 Proofs and Problem Solving - Lecture/10:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3058,19 +2990,23 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>458</v>
+        <v>250</v>
       </c>
       <c r="H36" t="n">
-        <v>426</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>191</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>* SEM 2</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>(9, 10, 11, 13, 14, 15, 16, 17, 18, 19)</t>
+          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -3078,10 +3014,10 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="N36" t="n">
-        <v>900</v>
+        <v>660</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3090,38 +3026,38 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>*Central</t>
+          <t>40 George Square Lecture Theatres</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>GALT_ Gordon Aikman Lecture Theatre</t>
+          <t>40GS_Lecture Theatre C</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>259</v>
+        <v>1043</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Engineering Mathematics 1a</t>
+          <t>Several Variable Calculus and Differential Equations</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MATH08074</t>
+          <t>MATH08063</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MATH1 Engineering Mathematics 1a - Lecture &lt;9-11, 13-19&gt;</t>
+          <t>MATH2 Sev Var Calc Diff Eq - Lecture/overflow</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3130,30 +3066,34 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>458</v>
+        <v>150</v>
       </c>
       <c r="H37" t="n">
-        <v>362</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>146</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>(9, 10, 11, 13, 14, 15, 16, 17, 18, 19)</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>660</v>
+        <v>720</v>
       </c>
       <c r="N37" t="n">
-        <v>720</v>
+        <v>780</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3162,63 +3102,67 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>*Central</t>
+          <t>*King's Buildings</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>GALT_ Gordon Aikman Lecture Theatre</t>
+          <t>JCMB_Lecture Theatre B</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>270</v>
+        <v>1042</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Engineering Mathematics 1a</t>
+          <t>Several Variable Calculus and Differential Equations</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MATH08074</t>
+          <t>MATH08063</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MATH1 Engineering Mathematics 1a - Studio Workshop/38 &lt;10, 12-13, 16-19&gt;</t>
+          <t>MATH2 Sev Var Calc Diff Eq - Lecture/main</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>*Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="H38" t="n">
-        <v>47</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>302</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>(10, 12, 13, 16, 17, 18, 19)</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="M38" t="n">
@@ -3234,63 +3178,67 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>*Central</t>
+          <t>*King's Buildings</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>40GS_LG.07 - Teaching Studio</t>
+          <t>SB_Main Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>271</v>
+        <v>1044</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Engineering Mathematics 1a</t>
+          <t>Several Variable Calculus and Differential Equations</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MATH08074</t>
+          <t>MATH08063</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MATH1 Engineering Mathematics 1a - Studio Workshop/38 &lt;11&gt;</t>
+          <t>MATH2 Sev Var Calc Diff Eq - Lecture/main</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>*Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="H39" t="n">
-        <v>47</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>448</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>(11,)</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="M39" t="n">
@@ -3306,70 +3254,74 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>*Central</t>
+          <t>*King's Buildings</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>40GS_LG.11</t>
+          <t>ASH_Lecture Theatre 1</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>274</v>
+        <v>1046</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Engineering Mathematics 1a</t>
+          <t>Several Variable Calculus and Differential Equations</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MATH08074</t>
+          <t>MATH08063</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MATH1 Engineering Mathematics 1a - Lecture Online Live</t>
+          <t>MATH2 Sev Var Calc Diff Eq - Lecture/overflow</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>*Lecture - Online Live</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>458</v>
+        <v>150</v>
       </c>
       <c r="H40" t="n">
-        <v>426</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>147</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>(12,)</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>840</v>
+        <v>720</v>
       </c>
       <c r="N40" t="n">
-        <v>900</v>
+        <v>780</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -3378,34 +3330,38 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>*Central</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr"/>
+          <t>*King's Buildings</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>JCMB_Lecture Theatre B</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>260</v>
+        <v>1045</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Engineering Mathematics 1a</t>
+          <t>Several Variable Calculus and Differential Equations</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MATH08074</t>
+          <t>MATH08063</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MATH1 Engineering Mathematics 1a - Lecture &lt;12&gt;</t>
+          <t>MATH2 Sev Var Calc Diff Eq - Lecture/main</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3414,19 +3370,23 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>194</v>
+        <v>350</v>
       </c>
       <c r="H41" t="n">
-        <v>362</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>301</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>(12,)</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -3434,10 +3394,10 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>660</v>
+        <v>720</v>
       </c>
       <c r="N41" t="n">
-        <v>720</v>
+        <v>780</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -3446,59 +3406,63 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>*Central</t>
+          <t>*King's Buildings</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>AT_Lecture Theatre 2</t>
+          <t>SB_Main Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>272</v>
+        <v>1048</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Engineering Mathematics 1a</t>
+          <t>Several Variable Calculus and Differential Equations</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MATH08074</t>
+          <t>MATH08063</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MATH1 Engineering Mathematics 1a - Studio Workshop/38 &lt;14&gt;</t>
+          <t>MATH2 Sev Var Calc Diff Eq - Lecture/overflow</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>*Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="H42" t="n">
-        <v>47</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>146</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>(14,)</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -3518,59 +3482,63 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>*Central</t>
+          <t>*King's Buildings</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>AT_2.12</t>
+          <t>JCMB_Lecture Theatre B</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>269</v>
+        <v>1047</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Engineering Mathematics 1a</t>
+          <t>Several Variable Calculus and Differential Equations</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MATH08074</t>
+          <t>MATH08063</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MATH1 Engineering Mathematics 1a - Studio Workshop/38 &lt;15&gt;</t>
+          <t>MATH2 Sev Var Calc Diff Eq - Lecture/main</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>*Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="H43" t="n">
-        <v>47</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>302</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>(15,)</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -3590,38 +3558,38 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>*Central</t>
+          <t>*King's Buildings</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>40GS_LG.09</t>
+          <t>SB_Main Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>288</v>
+        <v>413</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Engineering Mathematics 1b, Mathematics for the Natural Sciences 1b</t>
+          <t>Fundamentals of Pure Mathematics</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MATH08075</t>
+          <t>MATH08064</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MATH1 Engineering Mathematics/ Mathematics for Natural Science 1B - Lecture/overflow</t>
+          <t>MATH2 Fundamentals of Pure Mathematics - Lecture/overflow</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3633,9 +3601,13 @@
         <v>100</v>
       </c>
       <c r="H44" t="n">
-        <v>175</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>* SEM 2</t>
+        </is>
+      </c>
       <c r="J44" t="inlineStr">
         <is>
           <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
@@ -3646,7 +3618,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="M44" t="n">
@@ -3672,28 +3644,28 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>ESB_Lecture Theatre No. 1</t>
+          <t>JCMB_Lecture Theatre A</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>286</v>
+        <v>412</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Engineering Mathematics 1b, Mathematics for the Natural Sciences 1b</t>
+          <t>Fundamentals of Pure Mathematics</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MATH08075</t>
+          <t>MATH08064</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MATH1 Engineering Mathematics/ Mathematics for Natural Science 1B - Lecture</t>
+          <t>MATH2 Fundamentals of Pure Mathematics - Lecture/main</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3702,12 +3674,16 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="H45" t="n">
-        <v>401</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>372</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>* SEM 2</t>
+        </is>
+      </c>
       <c r="J45" t="inlineStr">
         <is>
           <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
@@ -3718,7 +3694,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="M45" t="n">
@@ -3739,33 +3715,33 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>Nucleus</t>
+          <t>*King's Buildings</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>NUC_1.14 - Oak Lecture Theatre</t>
+          <t>SB_Main Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>289</v>
+        <v>415</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Engineering Mathematics 1b, Mathematics for the Natural Sciences 1b</t>
+          <t>Fundamentals of Pure Mathematics</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MATH08075</t>
+          <t>MATH08064</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MATH1 Engineering Mathematics/ Mathematics for Natural Science 1B - Lecture/overflow</t>
+          <t>MATH2 Fundamentals of Pure Mathematics - Lecture/overflow</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3777,9 +3753,13 @@
         <v>100</v>
       </c>
       <c r="H46" t="n">
-        <v>176</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>89</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>* SEM 2</t>
+        </is>
+      </c>
       <c r="J46" t="inlineStr">
         <is>
           <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
@@ -3790,7 +3770,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="M46" t="n">
@@ -3816,28 +3796,28 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>ESB_Lecture Theatre No. 1</t>
+          <t>JCMB_Lecture Theatre C</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>287</v>
+        <v>414</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Engineering Mathematics 1b, Mathematics for the Natural Sciences 1b</t>
+          <t>Fundamentals of Pure Mathematics</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MATH08075</t>
+          <t>MATH08064</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MATH1 Engineering Mathematics/ Mathematics for Natural Science 1B - Lecture</t>
+          <t>MATH2 Fundamentals of Pure Mathematics - Lecture/main</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3849,9 +3829,13 @@
         <v>400</v>
       </c>
       <c r="H47" t="n">
-        <v>400</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>370</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>* SEM 2</t>
+        </is>
+      </c>
       <c r="J47" t="inlineStr">
         <is>
           <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
@@ -3862,7 +3846,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="M47" t="n">
@@ -3894,34 +3878,34 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>669</v>
+        <v>956</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Introduction to Data Science</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MATH08077</t>
+          <t>MATH08066</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MATH1 Introduction to Data Science - Lecture Online</t>
+          <t>MATH2 Probability - Lecture/main</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>*Lecture - Online Live</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G48" t="n">
         <v>300</v>
       </c>
       <c r="H48" t="n">
-        <v>180</v>
+        <v>265</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -3938,14 +3922,14 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>600</v>
+        <v>780</v>
       </c>
       <c r="N48" t="n">
-        <v>660</v>
+        <v>840</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -3957,52 +3941,60 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>*King's Buildings</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>ASH_Lecture Theatre 1</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>670</v>
+        <v>957</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Introduction to Data Science</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MATH08077</t>
+          <t>MATH08066</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MATH1 Introduction to Data Science - Student Hours Online</t>
+          <t>MATH2 Probability - Lecture/overflow</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Self Study</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>15</v>
+        <v>197</v>
       </c>
       <c r="H49" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>* SEM 1 - Weeks 2-11 only</t>
+          <t>* SEM 1</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>(10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -4010,10 +4002,10 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>660</v>
+        <v>780</v>
       </c>
       <c r="N49" t="n">
-        <v>720</v>
+        <v>840</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4022,38 +4014,38 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>*Central</t>
+          <t>JCMB</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>CMB_Seminar Room 6</t>
+          <t>JCMB_Lecture Theatre A</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>345</v>
+        <v>959</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Fourier Analysis</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MATH10051</t>
+          <t>MATH08066</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MATH4 Fourier Analysis - Lecture &lt;26-27&gt;</t>
+          <t>MATH2 Probability - Lecture/overflow</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4062,30 +4054,34 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="H50" t="n">
-        <v>20</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>164</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>(26, 27)</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K50" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>720</v>
+        <v>780</v>
       </c>
       <c r="N50" t="n">
-        <v>780</v>
+        <v>840</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4094,7 +4090,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -4104,28 +4100,28 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>JCMB_5327</t>
+          <t>JCMB_Lecture Theatre A</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>346</v>
+        <v>958</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Fourier Analysis</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MATH10051</t>
+          <t>MATH08066</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MATH4 Fourier Analysis - Lecture &lt;28-30, 32-37&gt;</t>
+          <t>MATH2 Probability - Lecture/main</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4134,30 +4130,34 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="H51" t="n">
-        <v>20</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>291</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>(28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K51" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>960</v>
+        <v>780</v>
       </c>
       <c r="N51" t="n">
-        <v>1020</v>
+        <v>840</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -4166,74 +4166,70 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>JCMB</t>
+          <t>*King's Buildings</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>JCMB_6206</t>
+          <t>SB_Main Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>902</v>
+        <v>266</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Numerical Ordinary Differential Equations and Applications</t>
+          <t>Engineering Mathematics 1a</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MATH10060</t>
+          <t>MATH08074</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MATH3 Numerical Ord Diff Eqn &amp; Appl - Q&amp;A Session</t>
+          <t>MATH1 Engineering Mathematics 1a - Studio Workshop/38 &lt;9&gt;</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Q&amp;A Session</t>
+          <t>*Workshop</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="H52" t="n">
-        <v>196</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>* SEM 2</t>
-        </is>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
+          <t>(9,)</t>
         </is>
       </c>
       <c r="K52" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>1020</v>
+        <v>720</v>
       </c>
       <c r="N52" t="n">
-        <v>1080</v>
+        <v>780</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -4242,70 +4238,74 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>JCMB_Lecture Theatre A</t>
+          <t>AT_2.05,AT_2.07,AT_2.11</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>866</v>
+        <v>276</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Multivariate Data Analysis</t>
+          <t>Engineering Mathematics 1a</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MATH10064</t>
+          <t>MATH08074</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MATH4 Multivariate Data Analysis - Wk 1 Online Workshop</t>
+          <t>MATH1 Engineering Mathematics 1a - Lecture/overflow</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>*Workshop - Online Live</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>131</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>(26,)</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>600</v>
+        <v>840</v>
       </c>
       <c r="N53" t="n">
-        <v>660</v>
+        <v>900</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -4314,44 +4314,56 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>01:00</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>*Central</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>OC_Usha Kasera Lecture Theatre</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>491</v>
+        <v>267</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Honours Analysis</t>
+          <t>Engineering Mathematics 1a</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MATH10068</t>
+          <t>MATH08074</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MATH3 Honours Analysis - Online Q&amp;A</t>
+          <t>MATH1 Engineering Mathematics 1a - Lecture/overflow</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Q&amp;A Session</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="H54" t="n">
-        <v>190</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr">
         <is>
           <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
@@ -4362,14 +4374,14 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>900</v>
+        <v>660</v>
       </c>
       <c r="N54" t="n">
-        <v>960</v>
+        <v>720</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -4381,131 +4393,147 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>*Central</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>40GS_13.07</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>451</v>
+        <v>268</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Group Theory</t>
+          <t>Engineering Mathematics 1a</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MATH10079</t>
+          <t>MATH08074</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MATH4 Group Theory - Workshop &lt;11&gt;</t>
+          <t>MATH1 Engineering Mathematics 1a - Lecture/overflow</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>*Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="H55" t="n">
-        <v>53</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>(11,)</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>960</v>
+        <v>660</v>
       </c>
       <c r="N55" t="n">
-        <v>1080</v>
+        <v>720</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>JCMB_3217 - Teaching Studio</t>
+          <t>AT_2.05</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>450</v>
+        <v>275</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Group Theory</t>
+          <t>Engineering Mathematics 1a</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>MATH10079</t>
+          <t>MATH08074</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MATH4 Group Theory - Workshop &lt;13, 15, 17, 19&gt;</t>
+          <t>MATH1 Engineering Mathematics 1a - Lecture/overflow</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>*Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H56" t="n">
-        <v>53</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>31</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>(13, 15, 17, 19)</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K56" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>960</v>
+        <v>660</v>
       </c>
       <c r="N56" t="n">
-        <v>1020</v>
+        <v>720</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -4514,182 +4542,182 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>JCMB_3217 - Teaching Studio</t>
+          <t>CMB_Seminar Room 5</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Entrepreneurship in the Mathematical Sciences</t>
+          <t>Engineering Mathematics 1a</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>MATH10099</t>
+          <t>MATH08074</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MATH4 Entrepreneurship in Maths Sci - Workshop &lt;9-16, 18&gt;</t>
+          <t>MATH1 Engineering Mathematics 1a - Lecture &lt;9-11, 13-19&gt;</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>*Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>40</v>
+        <v>458</v>
       </c>
       <c r="H57" t="n">
-        <v>43</v>
+        <v>426</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>(9, 10, 11, 12, 13, 14, 15, 16, 18)</t>
+          <t>(9, 10, 11, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K57" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="M57" t="n">
         <v>840</v>
       </c>
       <c r="N57" t="n">
-        <v>960</v>
+        <v>900</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>JCMB</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>JCMB_4325C - Teaching Studio</t>
+          <t>GALT_ Gordon Aikman Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Entrepreneurship in the Mathematical Sciences</t>
+          <t>Engineering Mathematics 1a</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MATH10099</t>
+          <t>MATH08074</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MATH4 Entrepreneurship in Maths Sci - Workshop &lt;17&gt;</t>
+          <t>MATH1 Engineering Mathematics 1a - Lecture &lt;9-11, 13-19&gt;</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>*Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>40</v>
+        <v>458</v>
       </c>
       <c r="H58" t="n">
-        <v>43</v>
+        <v>362</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>(17,)</t>
+          <t>(9, 10, 11, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>840</v>
+        <v>660</v>
       </c>
       <c r="N58" t="n">
-        <v>1080</v>
+        <v>720</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>JCMB</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>JCMB_4325C - Teaching Studio</t>
+          <t>GALT_ Gordon Aikman Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Entrepreneurship in the Mathematical Sciences</t>
+          <t>Engineering Mathematics 1a</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MATH10099</t>
+          <t>MATH08074</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>MATH4 Entrepreneurship in Maths Sci - Workshop &lt;19&gt;</t>
+          <t>MATH1 Engineering Mathematics 1a - Studio Workshop/38 &lt;10, 12-13, 16-19&gt;</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4698,151 +4726,159 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H59" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>(19,)</t>
+          <t>(10, 12, 13, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>840</v>
+        <v>720</v>
       </c>
       <c r="N59" t="n">
-        <v>1080</v>
+        <v>780</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>JCMB</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>JCMB_4325C - Teaching Studio</t>
+          <t>40GS_LG.07 - Teaching Studio</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Finance, Risk and Uncertainty</t>
+          <t>Engineering Mathematics 1a</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MATH11088</t>
+          <t>MATH08074</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>MATHO Finance, Risk and Uncertainty - Lecture (Online)</t>
+          <t>MATH1 Engineering Mathematics 1a - Studio Workshop/38 &lt;11&gt;</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>*Lecture - Online Live</t>
+          <t>*Workshop</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H60" t="n">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>(9, 10, 11, 12, 13)</t>
+          <t>(11,)</t>
         </is>
       </c>
       <c r="K60" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>660</v>
+        <v>720</v>
       </c>
       <c r="N60" t="n">
         <v>780</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>*Central</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>40GS_LG.11</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>323</v>
+        <v>274</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Finance, Risk and Uncertainty</t>
+          <t>Engineering Mathematics 1a</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MATH11088</t>
+          <t>MATH08074</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MATHO Finance, Risk and Uncertainty - Lecture &lt;15&gt;</t>
+          <t>MATH1 Engineering Mathematics 1a - Lecture Online Live</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>*Lecture - Online Live</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>90</v>
+        <v>458</v>
       </c>
       <c r="H61" t="n">
-        <v>69</v>
+        <v>426</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>(15,)</t>
+          <t>(12,)</t>
         </is>
       </c>
       <c r="K61" t="n">
@@ -4850,54 +4886,50 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="M61" t="n">
+        <v>840</v>
+      </c>
+      <c r="N61" t="n">
         <v>900</v>
       </c>
-      <c r="N61" t="n">
-        <v>1020</v>
-      </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>JBB_Theatre 100</t>
-        </is>
-      </c>
+          <t>*Central</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>322</v>
+        <v>260</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Finance, Risk and Uncertainty</t>
+          <t>Engineering Mathematics 1a</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>MATH11088</t>
+          <t>MATH08074</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>MATHO Finance, Risk and Uncertainty - Lecture &lt;16-18&gt;</t>
+          <t>MATH1 Engineering Mathematics 1a - Lecture &lt;12&gt;</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4906,102 +4938,102 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="H62" t="n">
-        <v>69</v>
+        <v>362</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>(16, 17, 18)</t>
+          <t>(12,)</t>
         </is>
       </c>
       <c r="K62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>900</v>
+        <v>660</v>
       </c>
       <c r="N62" t="n">
-        <v>1020</v>
+        <v>720</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>JCMB</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>JCMB_Lecture Theatre A</t>
+          <t>AT_Lecture Theatre 2</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>221</v>
+        <v>272</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Engineering Mathematics 1a</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH08074</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/01 &lt;27-28&gt;</t>
+          <t>MATH1 Engineering Mathematics 1a - Studio Workshop/38 &lt;14&gt;</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Workshop</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H63" t="n">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>(27, 28)</t>
+          <t>(14,)</t>
         </is>
       </c>
       <c r="K63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>900</v>
+        <v>720</v>
       </c>
       <c r="N63" t="n">
-        <v>960</v>
+        <v>780</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -5010,70 +5042,70 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+          <t>AT_2.12</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Engineering Mathematics 1a</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH08074</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/02 &lt;27-28&gt;</t>
+          <t>MATH1 Engineering Mathematics 1a - Studio Workshop/38 &lt;15&gt;</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Workshop</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="H64" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>(27, 28)</t>
+          <t>(15,)</t>
         </is>
       </c>
       <c r="K64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>900</v>
+        <v>720</v>
       </c>
       <c r="N64" t="n">
-        <v>960</v>
+        <v>780</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -5082,70 +5114,70 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+          <t>40GS_LG.09</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>219</v>
+        <v>288</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Engineering Mathematics 1b, Mathematics for the Natural Sciences 1b</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH08075</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/03 &lt;27-28&gt;</t>
+          <t>MATH1 Engineering Mathematics/ Mathematics for Natural Science 1B - Lecture/overflow</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="H65" t="n">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>(27, 28)</t>
+          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
         </is>
       </c>
       <c r="K65" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>900</v>
+        <v>720</v>
       </c>
       <c r="N65" t="n">
-        <v>960</v>
+        <v>780</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -5154,7 +5186,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
@@ -5164,60 +5196,60 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+          <t>ESB_Lecture Theatre No. 1</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>203</v>
+        <v>286</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Engineering Mathematics 1b, Mathematics for the Natural Sciences 1b</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH08075</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/04 &lt;27-28&gt;</t>
+          <t>MATH1 Engineering Mathematics/ Mathematics for Natural Science 1B - Lecture</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
       <c r="H66" t="n">
-        <v>16</v>
+        <v>401</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>(27, 28)</t>
+          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
         </is>
       </c>
       <c r="K66" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>900</v>
+        <v>720</v>
       </c>
       <c r="N66" t="n">
-        <v>960</v>
+        <v>780</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -5226,70 +5258,70 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>Nucleus</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+          <t>NUC_1.14 - Oak Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Engineering Mathematics 1b, Mathematics for the Natural Sciences 1b</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH08075</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/05 &lt;27-28&gt;</t>
+          <t>MATH1 Engineering Mathematics/ Mathematics for Natural Science 1B - Lecture/overflow</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="H67" t="n">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>(27, 28)</t>
+          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
         </is>
       </c>
       <c r="K67" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>900</v>
+        <v>720</v>
       </c>
       <c r="N67" t="n">
-        <v>960</v>
+        <v>780</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -5298,7 +5330,7 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
@@ -5308,60 +5340,60 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+          <t>ESB_Lecture Theatre No. 1</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Engineering Mathematics 1b, Mathematics for the Natural Sciences 1b</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH08075</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/06 &lt;27-28&gt;</t>
+          <t>MATH1 Engineering Mathematics/ Mathematics for Natural Science 1B - Lecture</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
       <c r="H68" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>(27, 28)</t>
+          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
         </is>
       </c>
       <c r="K68" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>960</v>
+        <v>720</v>
       </c>
       <c r="N68" t="n">
-        <v>1020</v>
+        <v>780</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -5370,70 +5402,74 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>Nucleus</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+          <t>NUC_1.14 - Oak Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>209</v>
+        <v>669</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Introduction to Data Science</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH08077</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/07 &lt;27-28&gt;</t>
+          <t>MATH1 Introduction to Data Science - Lecture Online</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Lecture - Online Live</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="H69" t="n">
-        <v>16</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>180</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>(27, 28)</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K69" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>960</v>
+        <v>600</v>
       </c>
       <c r="N69" t="n">
-        <v>1020</v>
+        <v>660</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -5442,70 +5478,66 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>02:00</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>*King's Buildings</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
-        </is>
-      </c>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>211</v>
+        <v>670</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Introduction to Data Science</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH08077</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/08 &lt;27-28&gt;</t>
+          <t>MATH1 Introduction to Data Science - Student Hours Online</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>Self Study</t>
         </is>
       </c>
       <c r="G70" t="n">
         <v>15</v>
       </c>
       <c r="H70" t="n">
-        <v>14</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>180</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>* SEM 1 - Weeks 2-11 only</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>(27, 28)</t>
+          <t>(10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K70" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>960</v>
+        <v>660</v>
       </c>
       <c r="N70" t="n">
-        <v>1020</v>
+        <v>720</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -5514,55 +5546,55 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+          <t>CMB_Seminar Room 6</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>213</v>
+        <v>345</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Fourier Analysis</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH10051</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/09 &lt;27-28&gt;</t>
+          <t>MATH4 Fourier Analysis - Lecture &lt;26-27&gt;</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="H71" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>(27, 28)</t>
+          <t>(26, 27)</t>
         </is>
       </c>
       <c r="K71" t="n">
@@ -5574,10 +5606,10 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>960</v>
+        <v>720</v>
       </c>
       <c r="N71" t="n">
-        <v>1020</v>
+        <v>780</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -5591,54 +5623,54 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>JCMB</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+          <t>JCMB_5327</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>215</v>
+        <v>346</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Fourier Analysis</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH10051</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/10 &lt;27-28&gt;</t>
+          <t>MATH4 Fourier Analysis - Lecture &lt;28-30, 32-37&gt;</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H72" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>(27, 28)</t>
+          <t>(28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
         </is>
       </c>
       <c r="K72" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -5658,70 +5690,74 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>JCMB</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+          <t>JCMB_6206</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>220</v>
+        <v>902</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Numerical Ordinary Differential Equations and Applications</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH10060</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/01 &lt;29, 33&gt;</t>
+          <t>MATH3 Numerical Ord Diff Eqn &amp; Appl - Q&amp;A Session</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>Q&amp;A Session</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="H73" t="n">
-        <v>16</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>196</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>* SEM 2</t>
+        </is>
+      </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>(29, 33)</t>
+          <t>(26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
         </is>
       </c>
       <c r="K73" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>840</v>
+        <v>1020</v>
       </c>
       <c r="N73" t="n">
-        <v>900</v>
+        <v>1080</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -5730,7 +5766,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
@@ -5740,60 +5776,60 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+          <t>JCMB_Lecture Theatre A</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>216</v>
+        <v>866</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Multivariate Data Analysis</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH10064</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/02 &lt;29, 33&gt;</t>
+          <t>MATH4 Multivariate Data Analysis - Wk 1 Online Workshop</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Workshop - Online Live</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="H74" t="n">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>(29, 33)</t>
+          <t>(26,)</t>
         </is>
       </c>
       <c r="K74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="N74" t="n">
-        <v>900</v>
+        <v>660</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -5802,70 +5838,62 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>02:00</t>
-        </is>
-      </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>*King's Buildings</t>
-        </is>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
-        </is>
-      </c>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>218</v>
+        <v>491</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Honours Analysis</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH10068</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/03 &lt;29, 33&gt;</t>
+          <t>MATH3 Honours Analysis - Online Q&amp;A</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>Q&amp;A Session</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c r="H75" t="n">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>(29, 33)</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19)</t>
         </is>
       </c>
       <c r="K75" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>840</v>
+        <v>900</v>
       </c>
       <c r="N75" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -5874,59 +5902,51 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>02:00</t>
-        </is>
-      </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>*King's Buildings</t>
-        </is>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
-        </is>
-      </c>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>202</v>
+        <v>451</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Group Theory</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH10079</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/04 &lt;29, 33&gt;</t>
+          <t>MATH4 Group Theory - Workshop &lt;11&gt;</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Workshop</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="H76" t="n">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>(29, 33)</t>
+          <t>(11,)</t>
         </is>
       </c>
       <c r="K76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -5934,14 +5954,14 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="N76" t="n">
-        <v>900</v>
+        <v>1080</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -5956,49 +5976,49 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+          <t>JCMB_3217 - Teaching Studio</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>204</v>
+        <v>450</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Group Theory</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH10079</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/05 &lt;29, 33&gt;</t>
+          <t>MATH4 Group Theory - Workshop &lt;13, 15, 17, 19&gt;</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Workshop</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="H77" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>(29, 33)</t>
+          <t>(13, 15, 17, 19)</t>
         </is>
       </c>
       <c r="K77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -6006,10 +6026,10 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="N77" t="n">
-        <v>900</v>
+        <v>1020</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -6018,7 +6038,7 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
@@ -6028,352 +6048,344 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+          <t>JCMB_3217 - Teaching Studio</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Entrepreneurship in the Mathematical Sciences</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH10099</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/06 &lt;29, 33&gt;</t>
+          <t>MATH4 Entrepreneurship in Maths Sci - Workshop &lt;9-16, 18&gt;</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Workshop</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H78" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>(29, 33)</t>
+          <t>(9, 10, 11, 12, 13, 14, 15, 16, 18)</t>
         </is>
       </c>
       <c r="K78" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>900</v>
+        <v>840</v>
       </c>
       <c r="N78" t="n">
         <v>960</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>JCMB</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>JCMB_1512</t>
+          <t>JCMB_4325C - Teaching Studio</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Entrepreneurship in the Mathematical Sciences</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH10099</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/07 &lt;29, 33&gt;</t>
+          <t>MATH4 Entrepreneurship in Maths Sci - Workshop &lt;17&gt;</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Workshop</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H79" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>(29, 33)</t>
+          <t>(17,)</t>
         </is>
       </c>
       <c r="K79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>900</v>
+        <v>840</v>
       </c>
       <c r="N79" t="n">
-        <v>960</v>
+        <v>1080</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>JCMB</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+          <t>JCMB_4325C - Teaching Studio</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>210</v>
+        <v>291</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Entrepreneurship in the Mathematical Sciences</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH10099</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/08 &lt;29, 33&gt;</t>
+          <t>MATH4 Entrepreneurship in Maths Sci - Workshop &lt;19&gt;</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Workshop</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H80" t="n">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>(29, 33)</t>
+          <t>(19,)</t>
         </is>
       </c>
       <c r="K80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>900</v>
+        <v>840</v>
       </c>
       <c r="N80" t="n">
-        <v>960</v>
+        <v>1080</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>JCMB</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+          <t>JCMB_4325C - Teaching Studio</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>212</v>
+        <v>321</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Finance, Risk and Uncertainty</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH11088</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/09 &lt;29, 33&gt;</t>
+          <t>MATHO Finance, Risk and Uncertainty - Lecture (Online)</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Lecture - Online Live</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="H81" t="n">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>(29, 33)</t>
+          <t>(9, 10, 11, 12, 13)</t>
         </is>
       </c>
       <c r="K81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>900</v>
+        <v>660</v>
       </c>
       <c r="N81" t="n">
-        <v>960</v>
+        <v>780</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>02:00</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>*King's Buildings</t>
-        </is>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
-        </is>
-      </c>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>214</v>
+        <v>323</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Finance, Risk and Uncertainty</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH11088</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Computer Workshop/10 &lt;29, 33&gt;</t>
+          <t>MATHO Finance, Risk and Uncertainty - Lecture &lt;15&gt;</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Computer Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H82" t="n">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>(29, 33)</t>
+          <t>(15,)</t>
         </is>
       </c>
       <c r="K82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="M82" t="n">
         <v>900</v>
       </c>
       <c r="N82" t="n">
-        <v>960</v>
+        <v>1020</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -6388,28 +6400,28 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+          <t>JBB_Theatre 100</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>40</v>
+        <v>322</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Bayesian Data Analysis</t>
+          <t>Finance, Risk and Uncertainty</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>MATH11175</t>
+          <t>MATH11088</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MATHO Bayesian Data Analysis - Lecture/01</t>
+          <t>MATHO Finance, Risk and Uncertainty - Lecture &lt;16-18&gt;</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6418,23 +6430,19 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="H83" t="n">
-        <v>123</v>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>* SEM 2 - Odd weeks only</t>
-        </is>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>(26, 28, 30, 33, 35, 37)</t>
+          <t>(16, 17, 18)</t>
         </is>
       </c>
       <c r="K83" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -6442,10 +6450,10 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>780</v>
+        <v>900</v>
       </c>
       <c r="N83" t="n">
-        <v>900</v>
+        <v>1020</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -6454,70 +6462,70 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>JCMB</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>NUC_B.01 - Alder Lecture Theatre</t>
+          <t>JCMB_Lecture Theatre A</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>423</v>
+        <v>221</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Further Complex Variables</t>
+          <t>Credit Scoring</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>MATH11233</t>
+          <t>MATH11148</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>MATH5 Further Complex Variables - Lecture &lt;26&gt;</t>
+          <t>MATHO Credit Scoring - Computer Workshop/01 &lt;27-28&gt;</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>Computer Workshop</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H84" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>(26,)</t>
+          <t>(27, 28)</t>
         </is>
       </c>
       <c r="K84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>780</v>
+        <v>900</v>
       </c>
       <c r="N84" t="n">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -6526,87 +6534,1603 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>JCMB</t>
+          <t>*King's Buildings</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>JCMB_5326</t>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>422</v>
+        <v>217</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Further Complex Variables</t>
+          <t>Credit Scoring</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>MATH11233</t>
+          <t>MATH11148</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MATH5 Further Complex Variables - Lecture &lt;27-30, 32-37&gt;</t>
+          <t>MATHO Credit Scoring - Computer Workshop/02 &lt;27-28&gt;</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>Computer Workshop</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H85" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
+          <t>(27, 28)</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>2</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>900</v>
+      </c>
+      <c r="N85" t="n">
+        <v>960</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>*King's Buildings</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Credit Scoring</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>MATH11148</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>MATHO Credit Scoring - Computer Workshop/03 &lt;27-28&gt;</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Computer Workshop</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>15</v>
+      </c>
+      <c r="H86" t="n">
+        <v>15</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>(27, 28)</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>2</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>900</v>
+      </c>
+      <c r="N86" t="n">
+        <v>960</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>*King's Buildings</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Credit Scoring</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>MATH11148</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>MATHO Credit Scoring - Computer Workshop/04 &lt;27-28&gt;</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Computer Workshop</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>15</v>
+      </c>
+      <c r="H87" t="n">
+        <v>16</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>(27, 28)</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>2</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>900</v>
+      </c>
+      <c r="N87" t="n">
+        <v>960</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>*King's Buildings</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Credit Scoring</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>MATH11148</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>MATHO Credit Scoring - Computer Workshop/05 &lt;27-28&gt;</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Computer Workshop</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>14</v>
+      </c>
+      <c r="H88" t="n">
+        <v>15</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>(27, 28)</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>2</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>900</v>
+      </c>
+      <c r="N88" t="n">
+        <v>960</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>*King's Buildings</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Credit Scoring</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>MATH11148</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>MATHO Credit Scoring - Computer Workshop/06 &lt;27-28&gt;</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Computer Workshop</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>15</v>
+      </c>
+      <c r="H89" t="n">
+        <v>15</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>(27, 28)</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>2</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>960</v>
+      </c>
+      <c r="N89" t="n">
+        <v>1020</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>*King's Buildings</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Credit Scoring</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>MATH11148</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>MATHO Credit Scoring - Computer Workshop/07 &lt;27-28&gt;</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Computer Workshop</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>15</v>
+      </c>
+      <c r="H90" t="n">
+        <v>16</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>(27, 28)</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>2</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>960</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1020</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>*King's Buildings</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Credit Scoring</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>MATH11148</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>MATHO Credit Scoring - Computer Workshop/08 &lt;27-28&gt;</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Computer Workshop</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>15</v>
+      </c>
+      <c r="H91" t="n">
+        <v>14</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>(27, 28)</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>2</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>960</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1020</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>*King's Buildings</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Credit Scoring</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>MATH11148</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>MATHO Credit Scoring - Computer Workshop/09 &lt;27-28&gt;</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Computer Workshop</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>15</v>
+      </c>
+      <c r="H92" t="n">
+        <v>14</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>(27, 28)</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>2</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>960</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1020</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>*King's Buildings</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Credit Scoring</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>MATH11148</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>MATHO Credit Scoring - Computer Workshop/10 &lt;27-28&gt;</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Computer Workshop</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>14</v>
+      </c>
+      <c r="H93" t="n">
+        <v>14</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>(27, 28)</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>2</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>960</v>
+      </c>
+      <c r="N93" t="n">
+        <v>1020</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>*King's Buildings</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Credit Scoring</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>MATH11148</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>MATHO Credit Scoring - Computer Workshop/01 &lt;29, 33&gt;</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Computer Workshop</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>15</v>
+      </c>
+      <c r="H94" t="n">
+        <v>16</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>(29, 33)</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>2</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>840</v>
+      </c>
+      <c r="N94" t="n">
+        <v>900</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>*King's Buildings</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Credit Scoring</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>MATH11148</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>MATHO Credit Scoring - Computer Workshop/02 &lt;29, 33&gt;</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Computer Workshop</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>15</v>
+      </c>
+      <c r="H95" t="n">
+        <v>15</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>(29, 33)</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>2</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>840</v>
+      </c>
+      <c r="N95" t="n">
+        <v>900</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>*King's Buildings</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Credit Scoring</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>MATH11148</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>MATHO Credit Scoring - Computer Workshop/03 &lt;29, 33&gt;</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Computer Workshop</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>15</v>
+      </c>
+      <c r="H96" t="n">
+        <v>15</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>(29, 33)</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>2</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>840</v>
+      </c>
+      <c r="N96" t="n">
+        <v>900</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>*King's Buildings</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Credit Scoring</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>MATH11148</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>MATHO Credit Scoring - Computer Workshop/04 &lt;29, 33&gt;</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Computer Workshop</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>15</v>
+      </c>
+      <c r="H97" t="n">
+        <v>16</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>(29, 33)</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>2</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>840</v>
+      </c>
+      <c r="N97" t="n">
+        <v>900</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>*King's Buildings</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Credit Scoring</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>MATH11148</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>MATHO Credit Scoring - Computer Workshop/05 &lt;29, 33&gt;</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Computer Workshop</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>14</v>
+      </c>
+      <c r="H98" t="n">
+        <v>15</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>(29, 33)</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>2</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>840</v>
+      </c>
+      <c r="N98" t="n">
+        <v>900</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>*King's Buildings</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Credit Scoring</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>MATH11148</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>MATHO Credit Scoring - Computer Workshop/06 &lt;29, 33&gt;</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Computer Workshop</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>15</v>
+      </c>
+      <c r="H99" t="n">
+        <v>15</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>(29, 33)</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>2</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>900</v>
+      </c>
+      <c r="N99" t="n">
+        <v>960</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>*King's Buildings</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>JCMB_1512</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Credit Scoring</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>MATH11148</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>MATHO Credit Scoring - Computer Workshop/07 &lt;29, 33&gt;</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Computer Workshop</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>15</v>
+      </c>
+      <c r="H100" t="n">
+        <v>16</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>(29, 33)</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>2</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>900</v>
+      </c>
+      <c r="N100" t="n">
+        <v>960</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>*King's Buildings</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Credit Scoring</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>MATH11148</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>MATHO Credit Scoring - Computer Workshop/08 &lt;29, 33&gt;</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Computer Workshop</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>15</v>
+      </c>
+      <c r="H101" t="n">
+        <v>14</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>(29, 33)</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>2</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>900</v>
+      </c>
+      <c r="N101" t="n">
+        <v>960</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>*King's Buildings</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Credit Scoring</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>MATH11148</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>MATHO Credit Scoring - Computer Workshop/09 &lt;29, 33&gt;</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Computer Workshop</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>15</v>
+      </c>
+      <c r="H102" t="n">
+        <v>14</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>(29, 33)</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>2</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>900</v>
+      </c>
+      <c r="N102" t="n">
+        <v>960</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>*King's Buildings</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Credit Scoring</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>MATH11148</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>MATHO Credit Scoring - Computer Workshop/10 &lt;29, 33&gt;</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Computer Workshop</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>14</v>
+      </c>
+      <c r="H103" t="n">
+        <v>14</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>(29, 33)</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>2</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>900</v>
+      </c>
+      <c r="N103" t="n">
+        <v>960</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>*King's Buildings</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>MH_1.20 - Open Access/Teaching Computer Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Bayesian Data Analysis</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>MATH11175</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>MATHO Bayesian Data Analysis - Lecture/01</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>*Lecture</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>150</v>
+      </c>
+      <c r="H104" t="n">
+        <v>123</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>* SEM 2 - Odd weeks only</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>(26, 28, 30, 33, 35, 37)</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>6</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>780</v>
+      </c>
+      <c r="N104" t="n">
+        <v>900</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>*King's Buildings</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>NUC_B.01 - Alder Lecture Theatre</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Further Complex Variables</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>MATH11233</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>MATH5 Further Complex Variables - Lecture &lt;26&gt;</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>*Lecture</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>30</v>
+      </c>
+      <c r="H105" t="n">
+        <v>41</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>(26,)</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>780</v>
+      </c>
+      <c r="N105" t="n">
+        <v>840</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>JCMB</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>JCMB_5326</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Further Complex Variables</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>MATH11233</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>MATH5 Further Complex Variables - Lecture &lt;27-30, 32-37&gt;</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>*Lecture</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>30</v>
+      </c>
+      <c r="H106" t="n">
+        <v>41</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
           <t>(27, 28, 29, 30, 32, 33, 34, 35, 36, 37)</t>
         </is>
       </c>
-      <c r="K85" t="n">
+      <c r="K106" t="n">
         <v>10</v>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="L106" t="inlineStr">
         <is>
           <t>Thursday</t>
         </is>
       </c>
-      <c r="M85" t="n">
+      <c r="M106" t="n">
         <v>780</v>
       </c>
-      <c r="N85" t="n">
+      <c r="N106" t="n">
         <v>840</v>
       </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>01:00</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="Q85" t="inlineStr">
+      <c r="Q106" t="inlineStr">
         <is>
           <t>JCMB</t>
         </is>
       </c>
-      <c r="R85" t="inlineStr">
+      <c r="R106" t="inlineStr">
         <is>
           <t>JCMB_5327</t>
         </is>
